--- a/vtac_italia/DISTINCT_FIELDS_EXCEL.xlsx
+++ b/vtac_italia/DISTINCT_FIELDS_EXCEL.xlsx
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>x_output_ac</t>
+          <t>x_frecuencia_de_radio_fm</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Output AC</t>
+          <t>frecuencia de radio fm</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -510,12 +510,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>x_tiempo_de_carga</t>
+          <t>x_autonomia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tiempo de carga</t>
+          <t>Autonomia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -542,12 +542,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>x_descripcion</t>
+          <t>x_proteccion_contra_cortocircuitos_de_salida</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>descripcion</t>
+          <t>Protección contra cortocircuitos de salida</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -574,12 +574,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>x_regulaciones_de_red</t>
+          <t>x_tamano_de_la_bateria</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Regulaciones de red</t>
+          <t>Tamaño de la batería</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -606,12 +606,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>x_efficienza_mppt</t>
+          <t>x_output_usb_2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Efficienza MPPT</t>
+          <t>Output USB 2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,12 +638,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>x_longitud_de_la_bobina</t>
+          <t>x_potencia_de_salida_maxima</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Longitud de la bobina</t>
+          <t>Potencia de salida máxima</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -670,12 +670,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>x_marco_del_panel</t>
+          <t>x_ruido</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Marco del panel</t>
+          <t>Ruido</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -702,12 +702,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>x_distancia_de_deteccion</t>
+          <t>x_flujo_luminoso</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Distancia de detección</t>
+          <t>Flujo luminoso</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -734,12 +734,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>x_unidad_de_medida</t>
+          <t>x_tension_nominal</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Unidad de medida</t>
+          <t>tensión nominal</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -766,12 +766,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>x_lumen_al_metro</t>
+          <t>x_humedad_relativa</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lumen al metro</t>
+          <t>Humedad relativa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -798,12 +798,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>x_working_time</t>
+          <t>x_grado_de_proteccion_contra_impactos</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Working time</t>
+          <t>Grado de protección contra impactos</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,12 +830,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>x_proteccion_contra_cortocircuitos_de_salida</t>
+          <t>x_garanzia</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Protección contra cortocircuitos de salida</t>
+          <t>Garanzia</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -862,12 +862,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>x_capacidad</t>
+          <t>x_marca_del_driver</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Capacidad</t>
+          <t>Marca del Driver</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -894,12 +894,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>x_potencia_nominal_de_ca</t>
+          <t>x_proteccion_contra_sobretensiones</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Potencia nominal de CA</t>
+          <t>Protección contra sobretensiones</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -926,12 +926,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>x_frecuencia_de_radio_fm</t>
+          <t>x_potencia_de_entrada</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>frecuencia de radio fm</t>
+          <t>Potencia de entrada</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -958,12 +958,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>x_output_auto</t>
+          <t>x_sku</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Output Auto</t>
+          <t>SKU</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -990,12 +990,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>x_numero_de_lamparas</t>
+          <t>x_potencia_de_entrada_de_carga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Número de lámparas</t>
+          <t>Potencia de entrada de carga</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1022,12 +1022,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>x_valor_pico</t>
+          <t>x_corriente_maxima_para_mppt</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Valor pico</t>
+          <t>Corriente máxima para MPPT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1054,12 +1054,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>x_potencia_equivalente</t>
+          <t>x_intervalo_de_adquisicion_de_datos</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Potencia equivalente</t>
+          <t>Intervalo de adquisición de datos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1086,12 +1086,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>x_intervalo_de_adquisicion_de_datos</t>
+          <t>x_abra_el_circuito_de_voltaje</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Intervalo de adquisición de datos</t>
+          <t>Abra el circuito de voltaje</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1118,12 +1118,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>x_control_en_tiempo_real</t>
+          <t>x_corriente_de_carga_estandar</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>control en tiempo real</t>
+          <t>Corriente de carga estándar</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1150,12 +1150,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>x_output_usb_1</t>
+          <t>x_sin_parpadeo_sin_parpadeo</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Output USB 1</t>
+          <t>Sin parpadeo (sin parpadeo)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1182,12 +1182,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>x_proteccion_contra_sobretension_de_salida</t>
+          <t>x_tension_maxima_de_entrada</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Protección contra sobretensión de salida</t>
+          <t>Tensión máxima de entrada</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1214,12 +1214,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>x_respuesta_frecuente</t>
+          <t>x_tipo_de_carga</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Respuesta frecuente</t>
+          <t>Tipo de carga</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1246,12 +1246,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>x_grado_de_proteccion_contra_impactos</t>
+          <t>x_bateria_recargable</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Grado de protección contra impactos</t>
+          <t>Batería recargable</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1278,12 +1278,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>x_rango_de_temperatura_recomendado</t>
+          <t>x_relacion_de_velocidad</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Rango de temperatura recomendado</t>
+          <t>relación de velocidad</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1310,12 +1310,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>x_woofer</t>
+          <t>x_wireless</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Woofer</t>
+          <t>Wireless</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1342,12 +1342,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>x_wireless</t>
+          <t>x_descripcion</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Wireless</t>
+          <t>descripcion</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1374,12 +1374,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>x_versione_bt</t>
+          <t>x_corriente_de_salida</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Versione BT</t>
+          <t>Corriente de salida</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1406,12 +1406,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>x_proteccion_contra_sobrecorriente_de_salida</t>
+          <t>x_campo_de_deteccion</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Protección contra sobrecorriente de salida</t>
+          <t>Campo de detección</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1438,12 +1438,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>x_voltaje_maximo_del_sistema</t>
+          <t>x_input_dc</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Voltaje máximo del sistema</t>
+          <t>Input DC</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1470,12 +1470,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>x_regulable</t>
+          <t>x_accesorios_por_sku</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Regulable</t>
+          <t>Accesorios por SKU</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1502,12 +1502,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>x_humedad_relativa</t>
+          <t>x_comunicacion_remota</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Humedad relativa</t>
+          <t>comunicación remota</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1534,12 +1534,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>x_dimension</t>
+          <t>x_grado_de_proteccion</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Dimensión</t>
+          <t>Grado de protección</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1566,12 +1566,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>x_caja_de_conexiones</t>
+          <t>x_productor</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Caja de conexiones</t>
+          <t>Productor</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1598,12 +1598,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>x_color</t>
+          <t>x_tension_de_arranque</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Color</t>
+          <t>Tensión de arranque</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1630,12 +1630,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>x_memoria</t>
+          <t>x_configuracion_de_usuario</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Memoria</t>
+          <t>Configuración de usuario</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1662,12 +1662,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>x_emc</t>
+          <t>x_output_auto</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>EMC</t>
+          <t>Output Auto</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1694,12 +1694,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>x_entrada_maxima</t>
+          <t>x_marco_del_panel</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Entrada máxima</t>
+          <t>Marco del panel</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1726,12 +1726,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>x_ciclos_de_encendido_apagado</t>
+          <t>x_input_usb_c</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ciclos de encendido/apagado</t>
+          <t>Input USB-C</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1758,12 +1758,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>x_factor_de_potencia_fp</t>
+          <t>x_longitud</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Factor de potencia (FP)</t>
+          <t>Longitud</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1790,12 +1790,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>x_sensor_de_temperatura_externo</t>
+          <t>x_toma_de_entrada</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sensor de temperatura externo</t>
+          <t>Toma de entrada</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1822,12 +1822,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>x_embalaje</t>
+          <t>x_temperatura_d'esercizio</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>embalaje</t>
+          <t>Temperatura d'Esercizio</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1854,12 +1854,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>x_coef__temperatura_actual</t>
+          <t>x_lifecycle_in_cicli</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Coef. temperatura actual</t>
+          <t>Lifecycle in cicli</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1886,12 +1886,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>x_lifecycle_in_cicli</t>
+          <t>x_bateria</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Lifecycle in cicli</t>
+          <t>Batería</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1918,12 +1918,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>x_efecto_frecuente</t>
+          <t>x_output_qc</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>efecto frecuente</t>
+          <t>Output QC</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1950,12 +1950,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>x_coef__temperatura_voltaje</t>
+          <t>x_coef__temperatura_actual</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Coef. temperatura Voltaje</t>
+          <t>Coef. temperatura actual</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1982,12 +1982,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>x_numero_de_led</t>
+          <t>x_tipo_de_bateria</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Número de LED</t>
+          <t>Tipo de Batería</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2014,12 +2014,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>x_c_rating_carica</t>
+          <t>x_consumo_energetico_nocturno</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>C rating carica</t>
+          <t>Consumo energético nocturno</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2046,12 +2046,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>x_codigo_de_la_familia</t>
+          <t>x_range_tensione_mppt</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Código de la Familia</t>
+          <t>Range tensione MPPT</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2078,12 +2078,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>x_temperatura_nominal_de_funcionamiento</t>
+          <t>x_durata</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Temperatura nominal de funcionamiento</t>
+          <t>Durata</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2110,12 +2110,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>x_frecuencia_de_red</t>
+          <t>x_c_rating_carica</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Frecuencia de red</t>
+          <t>C rating carica</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2142,12 +2142,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>x_corrente_al_metro</t>
+          <t>x_proteccion_contra_sobrecorriente_de_salida</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Corrente al metro</t>
+          <t>Protección contra sobrecorriente de salida</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2174,12 +2174,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>x_temperatura_d'esercizio</t>
+          <t>x_comunicacion_serial</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Temperatura d'Esercizio</t>
+          <t>Comunicación serial</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2206,12 +2206,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>x_material</t>
+          <t>x_respuesta_frecuente</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Material</t>
+          <t>Respuesta frecuente</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2238,12 +2238,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>x_piezas_en_la_caja</t>
+          <t>x_espesor</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Piezas en la caja</t>
+          <t>Espesor</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2270,12 +2270,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>x_bateria_recargable</t>
+          <t>x_capacidad_de_la_bateria_ah</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Batería recargable</t>
+          <t>Capacidad de la batería (Ah)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2302,12 +2302,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>x_estrategia_de_carga_para_la_bateria_de_iones_de_litio_</t>
+          <t>x_altura</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Estrategia de carga para la batería de iones de litio.</t>
+          <t>Altura</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2334,12 +2334,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>x_numero_de_rastreadores_mppt</t>
+          <t>x_coef__temperatura_voltaje</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Número de rastreadores MPPT</t>
+          <t>Coef. temperatura Voltaje</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2366,12 +2366,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>x_numero_de_celdas</t>
+          <t>x_interfaz_de_conexion</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Número de celdas</t>
+          <t>Interfaz de conexión</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2398,12 +2398,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>x_panel_solar</t>
+          <t>x_conectividad</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Panel solar</t>
+          <t>Conectividad</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2430,12 +2430,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>x_coef__temperatura_fuerza</t>
+          <t>x_output_ac</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Coef. temperatura fuerza</t>
+          <t>Output AC</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2462,12 +2462,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>x_tipo_de_vidrio</t>
+          <t>x_proteccion_contra_sobretension_de_salida</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Tipo de vidrio</t>
+          <t>Protección contra sobretensión de salida</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2494,12 +2494,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>x_cables_de_salida</t>
+          <t>x_entrada_nominal_rms</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cables de salida</t>
+          <t>Entrada nominal (rms)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2526,12 +2526,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>x_cri</t>
+          <t>x_curva_de_carga</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>Curva de carga</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2558,12 +2558,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>x_chip_led</t>
+          <t>x_estrategia_de_carga_para_la_bateria_de_iones_de_litio_</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Chip LED</t>
+          <t>Estrategia de carga para la batería de iones de litio.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2590,12 +2590,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>x_actualizacion_de_firmware</t>
+          <t>x_codigo_de_la_familia</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Actualización de firmware</t>
+          <t>Código de la Familia</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2622,12 +2622,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>x_eficacia_luminosa</t>
+          <t>x_corrente_al_metro</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Eficacia luminosa</t>
+          <t>Corrente al metro</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2654,12 +2654,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>x_error_de_fase</t>
+          <t>x_output_usb_c</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>error de fase</t>
+          <t>Output USB C</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2686,12 +2686,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>x_potencia_maxima_de_ca</t>
+          <t>x_output_dc</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Potencia máxima de CA</t>
+          <t>Output DC</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2718,12 +2718,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>x_entrada_nominal_rms</t>
+          <t>x_proteccion_contra_rayos_de_la_entrada_fotovoltaica</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Entrada nominal (rms)</t>
+          <t>Protección contra rayos de la entrada fotovoltaica</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2750,12 +2750,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>x_output_usb_c</t>
+          <t>x_memoria</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Output USB C</t>
+          <t>Memoria</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2782,12 +2782,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>x_input_dc</t>
+          <t>x_cadenas_para_mppt</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Input DC</t>
+          <t>Cadenas para MPPT</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2814,12 +2814,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>x_corriente_maxima_de_descarga</t>
+          <t>x_longitud_del_cable</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Corriente máxima de descarga</t>
+          <t>Longitud del cable</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2846,12 +2846,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>x_comunicacion_remota</t>
+          <t>x_sensibilidad_del_microfono</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>comunicación remota</t>
+          <t>Sensibilidad del micrófono</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2878,12 +2878,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>x_dimensioni_axlxp</t>
+          <t>x_jacobo</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Dimensioni (AxLxP)</t>
+          <t>Jacobo</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2910,12 +2910,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>x_corriente_de_descarga_estandar</t>
+          <t>x_fuerza</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Corriente de descarga estándar</t>
+          <t>Fuerza</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2942,12 +2942,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>x_pmpo</t>
+          <t>x_capacidad_de_la_bateria</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PMPO</t>
+          <t>Capacidad de la batería</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2974,12 +2974,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>x_corriente_maxima_para_mppt</t>
+          <t>x_corriente_de_cortocircuito_mppt</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Corriente máxima para MPPT</t>
+          <t>Corriente de cortocircuito MPPT</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3006,12 +3006,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>x_poder_absorbido</t>
+          <t>x_voltaje_maximo_del_sistema</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Poder absorbido</t>
+          <t>Voltaje máximo del sistema</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3038,12 +3038,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>x_marca_del_driver</t>
+          <t>x_capacidad</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Marca del Driver</t>
+          <t>Capacidad</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3070,12 +3070,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>x_relacion_de_velocidad</t>
+          <t>x_garantia_de_productividad</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>relación de velocidad</t>
+          <t>Garantía de productividad</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3102,12 +3102,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>x_ean</t>
+          <t>x_tension_minima_de_funcionamiento</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>EAN</t>
+          <t>Tensión mínima de funcionamiento</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3134,12 +3134,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>x_fuerza</t>
+          <t>x_se_puede_pedir_en_multiplos_de</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Fuerza</t>
+          <t>Se puede pedir en múltiplos de</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3166,12 +3166,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>x_jacobo</t>
+          <t>x_caja_de_conexiones</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Jacobo</t>
+          <t>Caja de conexiones</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3198,12 +3198,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>x_carga_maxima</t>
+          <t>x_error_de_fase</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Carga máxima</t>
+          <t>error de fase</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3230,12 +3230,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>x_corriente_maxima_del_fusible</t>
+          <t>x_regulaciones_de_seguridad</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Corriente máxima del fusible</t>
+          <t>Regulaciones de seguridad</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3262,12 +3262,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>x_output_inverter</t>
+          <t>x_tipo_regulable</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Output inverter</t>
+          <t>Tipo regulable</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3294,12 +3294,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>x_bms</t>
+          <t>x_url</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BMS</t>
+          <t>url</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3326,12 +3326,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>x_distorsion_armonica_actual</t>
+          <t>x_actualizacion_de_firmware</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Distorsión armónica actual</t>
+          <t>Actualización de firmware</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3358,12 +3358,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>x_seccion_de_cables</t>
+          <t>x_garantia_de_fabricacion</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Sección de cables</t>
+          <t>Garantía de fabricación</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3390,12 +3390,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>x_output_dc</t>
+          <t>x_ugr</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Output DC</t>
+          <t>UGR</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3422,12 +3422,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>x_potencia_de_salida</t>
+          <t>x_sensor</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Potencia de salida</t>
+          <t>sensor</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3454,12 +3454,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>x_salida_nominal</t>
+          <t>x_poder_absorbido</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Salida nominal</t>
+          <t>Poder absorbido</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3486,12 +3486,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>x_potencia_de_salida_maxima</t>
+          <t>x_tension_de_salida</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Potencia de salida máxima</t>
+          <t>Tensión de salida</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3518,12 +3518,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>x_input_ac</t>
+          <t>x_tipo_de_antena</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Input AC</t>
+          <t>Tipo de antena</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3550,12 +3550,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>x_sensor</t>
+          <t>x_carga_maxima_del_panel</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>sensor</t>
+          <t>Carga máxima del panel</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3582,12 +3582,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>x_sistema_electrico</t>
+          <t>x_corriente_maxima_de_salida</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Sistema electrico</t>
+          <t>Corriente máxima de salida</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3614,12 +3614,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>x_corriente_en_el_punto_de_maxima_potencia_</t>
+          <t>x_valor_pico</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Corriente en el punto de máxima potencia.</t>
+          <t>Valor pico</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3646,12 +3646,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>x_energia_del_modulo_fotovoltaico</t>
+          <t>x_dimensioni_axlxp</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Energía del módulo fotovoltaico</t>
+          <t>Dimensioni (AxLxP)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3678,12 +3678,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>x_tension_maxima_de_entrada</t>
+          <t>x_ean</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Tensión máxima de entrada</t>
+          <t>EAN</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3710,12 +3710,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>x_longitud_del_cable</t>
+          <t>x_seccion_de_coleccion</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Longitud del cable</t>
+          <t>Sección de colección</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3742,12 +3742,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>x_tipo_de_bateria</t>
+          <t>x_salida_nominal</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Tipo de Batería</t>
+          <t>Salida nominal</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3774,12 +3774,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>x_potencia_de_entrada</t>
+          <t>x_output_usb_1</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Potencia de entrada</t>
+          <t>Output USB 1</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3806,12 +3806,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>x_capacidad_de_la_bateria</t>
+          <t>x_corriente_maxima_del_fusible</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Capacidad de la batería</t>
+          <t>Corriente máxima del fusible</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3838,12 +3838,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>x_c_rating_scarica</t>
+          <t>x_efecto_frecuente</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>C rating scarica</t>
+          <t>efecto frecuente</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3870,12 +3870,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>x_abra_el_circuito_de_voltaje</t>
+          <t>x_forma</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Abra el circuito de voltaje</t>
+          <t>Forma</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3902,12 +3902,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>x_deteccion_de_resistencia_de_aislamiento</t>
+          <t>x_pmpo</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Detección de resistencia de aislamiento</t>
+          <t>PMPO</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3934,12 +3934,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>x_durata</t>
+          <t>x_tiempo_de_carga</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Durata</t>
+          <t>Tiempo de carga</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3966,12 +3966,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>x_seccion_de_coleccion</t>
+          <t>x_resistencia_maxima_de_muestreo</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Sección de colección</t>
+          <t>Resistencia máxima de muestreo</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3998,12 +3998,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>x_configuracion_de_usuario</t>
+          <t>x_efficienza_mppt</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Configuración de usuario</t>
+          <t>Efficienza MPPT</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4030,12 +4030,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>x_altitud_maxima_de_funcionamiento</t>
+          <t>x_potencia_de_salida</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Altitud máxima de funcionamiento</t>
+          <t>Potencia de salida</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4062,12 +4062,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>x_consumo_de_energia</t>
+          <t>x_lumen_al_metro</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Consumo de energía</t>
+          <t>Lumen al metro</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4094,12 +4094,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>x_tipo_regulable</t>
+          <t>x_material</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Tipo regulable</t>
+          <t>Material</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4126,12 +4126,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>x_tipo_de_celula</t>
+          <t>x_seccion_de_cables</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Tipo de célula</t>
+          <t>Sección de cables</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4158,12 +4158,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>x_ruido</t>
+          <t>x_ciclos_de_encendido_apagado</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Ruido</t>
+          <t>Ciclos de encendido/apagado</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4190,12 +4190,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>x_eficiencia_del_modulo</t>
+          <t>x_cri</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Eficiencia del módulo</t>
+          <t>CRI</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4222,12 +4222,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>x_carga_maxima_del_panel</t>
+          <t>x_watt_al_metro</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Carga máxima del panel</t>
+          <t>Watt al metro</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4254,12 +4254,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>x_input_usb_c</t>
+          <t>x_dimension</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Input USB-C</t>
+          <t>Dimensión</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4286,12 +4286,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>x_corriente_de_salida</t>
+          <t>x_tension_en_el_punto_de_maxima_potencia_</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Corriente de salida</t>
+          <t>Tensión en el punto de máxima potencia.</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4318,12 +4318,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>x_altura</t>
+          <t>x_unidad_de_medida</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Altura</t>
+          <t>Unidad de medida</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4350,12 +4350,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>x_garanzia</t>
+          <t>x_haz_de_luz</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Garanzia</t>
+          <t>Haz de luz</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4382,12 +4382,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>x_garantia_de_productividad</t>
+          <t>x_output_inverter</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Garantía de productividad</t>
+          <t>Output inverter</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4414,12 +4414,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>x_autonomia</t>
+          <t>x_c_rating_scarica</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Autonomia</t>
+          <t>C rating scarica</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4446,12 +4446,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>x_sensor</t>
+          <t>x_apoyo</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Sensor</t>
+          <t>Apoyo</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4478,12 +4478,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>x_proteccion_contra_rayos_de_la_entrada_fotovoltaica</t>
+          <t>x_tolerancia_de_potencia</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Protección contra rayos de la entrada fotovoltaica</t>
+          <t>Tolerancia de potencia</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4510,12 +4510,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>x_potencia_de_entrada_de_carga</t>
+          <t>x_longitud_de_la_bobina</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Potencia de entrada de carga</t>
+          <t>Longitud de la bobina</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4574,12 +4574,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>x_thdi</t>
+          <t>x_tension_nominal_mppt</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>THDi</t>
+          <t>Tensión nominal MPPT</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4606,12 +4606,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>x_sensor_de_imagen</t>
+          <t>x_color_de_la_luz</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Sensor de imagen</t>
+          <t>Color de la luz</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4638,12 +4638,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>x_piezas_por_palet</t>
+          <t>x_regulable</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Piezas por palet</t>
+          <t>Regulable</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4670,12 +4670,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>x_factor_de_potencia</t>
+          <t>x_thdi</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Factor de potencia</t>
+          <t>THDi</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4702,12 +4702,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>x_conector_usb</t>
+          <t>x_deteccion_de_resistencia_de_aislamiento</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>conector USB</t>
+          <t>Detección de resistencia de aislamiento</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4734,12 +4734,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>x_proteccion_anti_isla</t>
+          <t>x_salida_de_potencia_continua</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Protección anti-isla</t>
+          <t>Salida de potencia continua</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4766,12 +4766,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>x_cadenas_para_mppt</t>
+          <t>x_resolucion</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Cadenas para MPPT</t>
+          <t>Resolución</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4798,12 +4798,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>x_tamano_de_la_bateria</t>
+          <t>x_woofer</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Tamaño de la batería</t>
+          <t>Woofer</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4830,12 +4830,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>x_campo_de_deteccion</t>
+          <t>x_numero_de_led</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Campo de detección</t>
+          <t>Número de LED</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4862,12 +4862,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>x_grado_de_proteccion</t>
+          <t>x_chip_led</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Grado de protección</t>
+          <t>Chip LED</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4894,12 +4894,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>x_corriente_de_carga_maxima</t>
+          <t>x_coef__temperatura_fuerza</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Corriente de carga máxima</t>
+          <t>Coef. temperatura fuerza</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4926,12 +4926,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>x_unidad_de_control_de_corriente_residual</t>
+          <t>x_proteccion_contra_polaridad_inversa_de_la_entrada_de_la_cad</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Unidad de control de corriente residual</t>
+          <t>Protección contra polaridad inversa de la entrada de la cadena fotovoltaica</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4958,12 +4958,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>x_tension_minima_de_funcionamiento</t>
+          <t>x_control_remoto</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Tensión mínima de funcionamiento</t>
+          <t>Control remoto</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4990,12 +4990,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>x_conectividad</t>
+          <t>x_numero_de_rastreadores_mppt</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Conectividad</t>
+          <t>Número de rastreadores MPPT</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5022,12 +5022,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>x_tension_nominal</t>
+          <t>x_panel_solar</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>tensión nominal</t>
+          <t>Panel solar</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5054,12 +5054,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>x_proteccion_contra_polaridad_inversa_de_la_entrada_de_la_cad</t>
+          <t>x_tipo_de_vidrio</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Protección contra polaridad inversa de la entrada de la cadena fotovoltaica</t>
+          <t>Tipo de vidrio</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5086,12 +5086,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>x_metodo_de_montaje</t>
+          <t>x_luce_a_led</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Método de montaje</t>
+          <t>Luce a LED</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5118,12 +5118,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>x_url</t>
+          <t>x_sensor_de_temperatura_externo</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>Sensor de temperatura externo</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5150,12 +5150,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>x_temperatura_de_color_cti</t>
+          <t>x_comunicacion</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Temperatura de color (CTI)</t>
+          <t>Comunicación</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5182,12 +5182,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>x_corriente_maxima_de_salida</t>
+          <t>x_rango_de_temperatura_recomendado</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Corriente máxima de salida</t>
+          <t>Rango de temperatura recomendado</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5214,12 +5214,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>x_touch</t>
+          <t>x_factor_de_potencia_fp</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Touch</t>
+          <t>Factor de potencia (FP)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5246,12 +5246,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>x_potencia_de_salida_continua</t>
+          <t>x_cables_de_salida</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Potencia de salida continua</t>
+          <t>Cables de salida</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5278,12 +5278,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>x_curva_de_carga</t>
+          <t>x_frequenza_wireless</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Curva de carga</t>
+          <t>Frequenza wireless</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5310,12 +5310,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>x_tipo_de_carga</t>
+          <t>x_tension_de_red</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Tipo de carga</t>
+          <t>Tensión de red</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5342,12 +5342,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>x_apoyo</t>
+          <t>x_corriente_en_el_punto_de_maxima_potencia_</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Apoyo</t>
+          <t>Corriente en el punto de máxima potencia.</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5374,12 +5374,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>x_interfaz_de_conexion</t>
+          <t>x_color</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Interfaz de conexión</t>
+          <t>Color</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5406,12 +5406,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>x_flujo_luminoso</t>
+          <t>x_factor_de_potencia</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Flujo luminoso</t>
+          <t>Factor de potencia</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5438,12 +5438,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>x_tension_de_carga</t>
+          <t>x_frecuencia_de_red</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Tensión de carga</t>
+          <t>Frecuencia de red</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5470,12 +5470,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>x_range_tensione_mppt</t>
+          <t>x_potencia_nominal</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Range tensione MPPT</t>
+          <t>Potencia nominal</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5502,12 +5502,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>x_tension_de_salida</t>
+          <t>x_tension_de_alimentacion</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Tensión de salida</t>
+          <t>Tensión de alimentación</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5534,12 +5534,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>x_haz_de_luz</t>
+          <t>x_tension_de_carga</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Haz de luz</t>
+          <t>Tensión de carga</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5566,12 +5566,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>x_sku</t>
+          <t>x_s_n</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>SKU</t>
+          <t>S/N</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5598,12 +5598,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>x_tipo_de_instalacion</t>
+          <t>x_tipo_de_celula</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Tipo de instalación</t>
+          <t>Tipo de célula</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5630,12 +5630,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>x_maxima_eficiencia</t>
+          <t>x_corriente_maxima_de_descarga</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Máxima eficiencia</t>
+          <t>Corriente máxima de descarga</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5662,12 +5662,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>x_output_qc</t>
+          <t>x_ataque</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Output QC</t>
+          <t>Ataque</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5694,12 +5694,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>x_s_n</t>
+          <t>x_altitud_maxima_de_funcionamiento</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>S/N</t>
+          <t>Altitud máxima de funcionamiento</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5726,12 +5726,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>x_espesor</t>
+          <t>x_potencia_equivalente</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Espesor</t>
+          <t>Potencia equivalente</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5758,12 +5758,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>x_ataque</t>
+          <t>x_entrada_maxima</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Ataque</t>
+          <t>Entrada máxima</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5790,12 +5790,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>x_sensibilidad_del_microfono</t>
+          <t>x_piezas_por_palet</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Sensibilidad del micrófono</t>
+          <t>Piezas por palet</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5822,12 +5822,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>x_potencia_maxima_de_entrada</t>
+          <t>x_consumo_de_energia</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Potencia máxima de entrada</t>
+          <t>Consumo de energía</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5854,12 +5854,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>x_version</t>
+          <t>x_numero_de_llaves</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Versión</t>
+          <t>numero de llaves</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5886,12 +5886,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>x_accesorios_por_sku</t>
+          <t>x_vocero</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Accesorios por SKU</t>
+          <t>Vocero</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5918,12 +5918,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>x_comunicacion_serial</t>
+          <t>x_tecnologia_led</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Comunicación serial</t>
+          <t>Tecnologia LED</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5950,12 +5950,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>x_productor</t>
+          <t>x_eficacia_luminosa</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Productor</t>
+          <t>Eficacia luminosa</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5982,12 +5982,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>x_sin_parpadeo_sin_parpadeo</t>
+          <t>x_potencia_de_salida_continua</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Sin parpadeo (sin parpadeo)</t>
+          <t>Potencia de salida continua</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6014,12 +6014,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>x_se_puede_pedir_en_multiplos_de</t>
+          <t>x_touch</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Se puede pedir en múltiplos de</t>
+          <t>Touch</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6046,12 +6046,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>x_numero_de_llaves</t>
+          <t>x_enfriandose</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>numero de llaves</t>
+          <t>Enfriándose</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6078,12 +6078,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>x_corriente_de_cortocircuito</t>
+          <t>x_corriente_maxima</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Corriente de cortocircuito</t>
+          <t>Corriente máxima</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6110,12 +6110,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>x_output_usb_2</t>
+          <t>x_maxima_eficiencia</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Output USB 2</t>
+          <t>Máxima eficiencia</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6142,12 +6142,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>x_tension_en_el_punto_de_maxima_potencia_</t>
+          <t>x_tipo_de_instalacion</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Tensión en el punto de máxima potencia.</t>
+          <t>Tipo de instalación</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6174,12 +6174,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>x_frequenza_wireless</t>
+          <t>x_carga_maxima</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Frequenza wireless</t>
+          <t>Carga máxima</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6206,12 +6206,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>x_tolerancia_de_potencia</t>
+          <t>x_distancia_de_deteccion</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Tolerancia de potencia</t>
+          <t>Distancia de detección</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6238,12 +6238,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>x_corriente_maxima</t>
+          <t>x_temperatura_nominal_de_funcionamiento</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Corriente máxima</t>
+          <t>Temperatura nominal de funcionamiento</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6270,12 +6270,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>x_tension_de_corte_al_final_de_la_descarga</t>
+          <t>x_temperatura_de_color_cti</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Tensión de corte (al final de la descarga)</t>
+          <t>Temperatura de color (CTI)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6302,12 +6302,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>x_capacidad_de_la_bateria_ah</t>
+          <t>x_embalaje</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Capacidad de la batería (Ah)</t>
+          <t>embalaje</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6334,12 +6334,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>x_regulaciones_de_seguridad</t>
+          <t>x_sensor</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Regulaciones de seguridad</t>
+          <t>Sensor</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6366,12 +6366,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>x_voltaje_de_la_bateria</t>
+          <t>x_sensor_de_imagen</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Voltaje de la batería</t>
+          <t>Sensor de imagen</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6398,12 +6398,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>x_consumo_energetico_nocturno</t>
+          <t>x_proteccion_anti_isla</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Consumo energético nocturno</t>
+          <t>Protección anti-isla</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6430,12 +6430,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>x_id_eprel</t>
+          <t>x_eficiencia_del_modulo</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ID EPREL</t>
+          <t>Eficiencia del módulo</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6462,12 +6462,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>x_nombre_de_la_marca</t>
+          <t>x_ciclos_de_carga_descarga</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Nombre de la marca</t>
+          <t>Ciclos de carga/descarga</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6494,12 +6494,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>x_tipo_de_antena</t>
+          <t>x_tension_de_corte_al_final_de_la_descarga</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Tipo de antena</t>
+          <t>Tensión de corte (al final de la descarga)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6526,12 +6526,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>x_ugr</t>
+          <t>x_conector_usb</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>UGR</t>
+          <t>conector USB</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6558,12 +6558,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>x_bateria</t>
+          <t>x_sistema_electrico</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Batería</t>
+          <t>Sistema electrico</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6590,12 +6590,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>x_color_de_la_luz</t>
+          <t>x_regulaciones_de_red</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Color de la luz</t>
+          <t>Regulaciones de red</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6622,12 +6622,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>x_toma_de_entrada</t>
+          <t>x_id_eprel</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Toma de entrada</t>
+          <t>ID EPREL</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6654,12 +6654,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>x_proteccion_contra_sobretensiones</t>
+          <t>x_emc</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Protección contra sobretensiones</t>
+          <t>EMC</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -6686,12 +6686,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>x_tension_de_arranque</t>
+          <t>x_input_ac</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Tensión de arranque</t>
+          <t>Input AC</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -6718,12 +6718,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>x_potencia_nominal</t>
+          <t>x_corriente_de_descarga_estandar</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Potencia nominal</t>
+          <t>Corriente de descarga estándar</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -6750,12 +6750,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>x_tension_nominal_mppt</t>
+          <t>x_versione_bt</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Tensión nominal MPPT</t>
+          <t>Versione BT</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -6782,12 +6782,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>x_garantia_de_fabricacion</t>
+          <t>x_numero_de_lamparas</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Garantía de fabricación</t>
+          <t>Número de lámparas</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -6814,12 +6814,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>x_comunicacion</t>
+          <t>x_bms</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Comunicación</t>
+          <t>BMS</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -6846,12 +6846,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>x_ciclos_de_carga_descarga</t>
+          <t>x_potencia_maxima_de_ca</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Ciclos de carga/descarga</t>
+          <t>Potencia máxima de CA</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -6878,12 +6878,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>x_interfaz_de_datos</t>
+          <t>x_potencia_nominal_de_ca</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Interfaz de datos</t>
+          <t>Potencia nominal de CA</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -6910,12 +6910,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>x_tecnologia_led</t>
+          <t>x_corriente_de_carga_maxima</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Tecnologia LED</t>
+          <t>Corriente de carga máxima</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -6942,12 +6942,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>x_enfriandose</t>
+          <t>x_distorsion_armonica_actual</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Enfriándose</t>
+          <t>Distorsión armónica actual</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -6974,12 +6974,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>x_tension_de_red</t>
+          <t>x_piezas_en_la_caja</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Tensión de red</t>
+          <t>Piezas en la caja</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -7006,12 +7006,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>x_tension_de_alimentacion</t>
+          <t>x_energia_del_modulo_fotovoltaico</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Tensión de alimentación</t>
+          <t>Energía del módulo fotovoltaico</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7038,12 +7038,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>x_vocero</t>
+          <t>x_unidad_de_control_de_corriente_residual</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Vocero</t>
+          <t>Unidad de control de corriente residual</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -7070,12 +7070,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>x_resistencia_maxima_de_muestreo</t>
+          <t>x_metodo_de_montaje</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Resistencia máxima de muestreo</t>
+          <t>Método de montaje</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7102,12 +7102,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>x_luce_a_led</t>
+          <t>x_precision</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Luce a LED</t>
+          <t>Precisión</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7134,12 +7134,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>x_precision</t>
+          <t>x_nombre_de_la_marca</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Precisión</t>
+          <t>Nombre de la marca</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7166,12 +7166,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>x_corriente_de_cortocircuito_mppt</t>
+          <t>x_version</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Corriente de cortocircuito MPPT</t>
+          <t>Versión</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7198,12 +7198,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>x_resolucion</t>
+          <t>x_control_en_tiempo_real</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Resolución</t>
+          <t>control en tiempo real</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7230,12 +7230,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>x_forma</t>
+          <t>x_voltaje_de_la_bateria</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Forma</t>
+          <t>Voltaje de la batería</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -7262,12 +7262,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>x_watt_al_metro</t>
+          <t>x_interfaz_de_datos</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Watt al metro</t>
+          <t>Interfaz de datos</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7294,12 +7294,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>x_longitud</t>
+          <t>x_working_time</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Longitud</t>
+          <t>Working time</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7326,12 +7326,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>x_control_remoto</t>
+          <t>x_corriente_de_cortocircuito</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Control remoto</t>
+          <t>Corriente de cortocircuito</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7358,12 +7358,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>x_salida_de_potencia_continua</t>
+          <t>x_numero_de_celdas</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Salida de potencia continua</t>
+          <t>Número de celdas</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7390,12 +7390,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>x_corriente_de_carga_estandar</t>
+          <t>x_potencia_maxima_de_entrada</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Corriente de carga estándar</t>
+          <t>Potencia máxima de entrada</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">

--- a/vtac_italia/DISTINCT_FIELDS_EXCEL.xlsx
+++ b/vtac_italia/DISTINCT_FIELDS_EXCEL.xlsx
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>x_frecuencia_de_radio_fm</t>
+          <t>x_lifecycle_in_cicli</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>frecuencia de radio fm</t>
+          <t>Lifecycle in cicli</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -510,12 +510,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>x_autonomia</t>
+          <t>x_output_usb_c</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Autonomia</t>
+          <t>Output USB C</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -542,12 +542,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>x_proteccion_contra_cortocircuitos_de_salida</t>
+          <t>x_capacidad</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Protección contra cortocircuitos de salida</t>
+          <t>Capacidad</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -574,12 +574,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>x_tamano_de_la_bateria</t>
+          <t>x_campo_de_deteccion</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tamaño de la batería</t>
+          <t>Campo de detección</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -606,12 +606,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>x_output_usb_2</t>
+          <t>x_curva_de_carga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Output USB 2</t>
+          <t>Curva de carga</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,12 +638,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>x_potencia_de_salida_maxima</t>
+          <t>x_id_eprel</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Potencia de salida máxima</t>
+          <t>ID EPREL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -670,12 +670,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>x_ruido</t>
+          <t>x_seccion_de_coleccion</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ruido</t>
+          <t>Sección de colección</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -702,12 +702,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>x_flujo_luminoso</t>
+          <t>x_humedad_relativa</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Flujo luminoso</t>
+          <t>Humedad relativa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -734,12 +734,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>x_tension_nominal</t>
+          <t>x_ugr</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>tensión nominal</t>
+          <t>UGR</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -766,12 +766,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>x_humedad_relativa</t>
+          <t>x_configuracion_de_usuario</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Humedad relativa</t>
+          <t>Configuración de usuario</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -798,12 +798,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>x_grado_de_proteccion_contra_impactos</t>
+          <t>x_haz_de_luz</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Grado de protección contra impactos</t>
+          <t>Haz de luz</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,12 +830,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>x_garanzia</t>
+          <t>x_numero_de_rastreadores_mppt</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Garanzia</t>
+          <t>Número de rastreadores MPPT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -862,12 +862,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>x_marca_del_driver</t>
+          <t>x_regulaciones_de_red</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Marca del Driver</t>
+          <t>Regulaciones de red</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -894,12 +894,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>x_proteccion_contra_sobretensiones</t>
+          <t>x_potencia_nominal_de_ca</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Protección contra sobretensiones</t>
+          <t>Potencia nominal de CA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -926,12 +926,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>x_potencia_de_entrada</t>
+          <t>x_carga_maxima</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Potencia de entrada</t>
+          <t>Carga máxima</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -958,12 +958,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>x_sku</t>
+          <t>x_temperatura_nominal_de_funcionamiento</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SKU</t>
+          <t>Temperatura nominal de funcionamiento</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -990,12 +990,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>x_potencia_de_entrada_de_carga</t>
+          <t>x_dimensioni_axlxp</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Potencia de entrada de carga</t>
+          <t>Dimensioni (AxLxP)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1022,12 +1022,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>x_corriente_maxima_para_mppt</t>
+          <t>x_caja_de_conexiones</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Corriente máxima para MPPT</t>
+          <t>Caja de conexiones</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1054,12 +1054,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>x_intervalo_de_adquisicion_de_datos</t>
+          <t>x_proteccion_contra_rayos_de_la_entrada_fotovoltaica</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Intervalo de adquisición de datos</t>
+          <t>Protección contra rayos de la entrada fotovoltaica</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1086,12 +1086,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>x_abra_el_circuito_de_voltaje</t>
+          <t>x_tecnologia_led</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Abra el circuito de voltaje</t>
+          <t>Tecnologia LED</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1118,12 +1118,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>x_corriente_de_carga_estandar</t>
+          <t>x_durata</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Corriente de carga estándar</t>
+          <t>Durata</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1150,12 +1150,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>x_sin_parpadeo_sin_parpadeo</t>
+          <t>x_marco_del_panel</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sin parpadeo (sin parpadeo)</t>
+          <t>Marco del panel</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1182,12 +1182,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>x_tension_maxima_de_entrada</t>
+          <t>x_woofer</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tensión máxima de entrada</t>
+          <t>Woofer</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1214,12 +1214,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>x_tipo_de_carga</t>
+          <t>x_error_de_fase</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tipo de carga</t>
+          <t>error de fase</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1246,12 +1246,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>x_bateria_recargable</t>
+          <t>x_output_usb_2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Batería recargable</t>
+          <t>Output USB 2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1278,12 +1278,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>x_relacion_de_velocidad</t>
+          <t>x_altura</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>relación de velocidad</t>
+          <t>Altura</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1310,12 +1310,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>x_wireless</t>
+          <t>x_sku</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Wireless</t>
+          <t>SKU</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1342,12 +1342,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>x_descripcion</t>
+          <t>x_tipo_de_vidrio</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>descripcion</t>
+          <t>Tipo de vidrio</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1374,12 +1374,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>x_corriente_de_salida</t>
+          <t>x_temperatura_d'esercizio</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Corriente de salida</t>
+          <t>Temperatura d'Esercizio</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1406,12 +1406,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>x_campo_de_deteccion</t>
+          <t>x_range_tensione_mppt</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Campo de detección</t>
+          <t>Range tensione MPPT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1438,12 +1438,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>x_input_dc</t>
+          <t>x_output_usb_1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Input DC</t>
+          <t>Output USB 1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1470,12 +1470,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>x_accesorios_por_sku</t>
+          <t>x_tipo_de_bateria</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Accesorios por SKU</t>
+          <t>Tipo de Batería</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1502,12 +1502,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>x_comunicacion_remota</t>
+          <t>x_sensor</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>comunicación remota</t>
+          <t>Sensor</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1534,12 +1534,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>x_grado_de_proteccion</t>
+          <t>x_corriente_de_carga_estandar</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Grado de protección</t>
+          <t>Corriente de carga estándar</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1566,12 +1566,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>x_productor</t>
+          <t>x_potencia_de_salida_continua</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Productor</t>
+          <t>Potencia de salida continua</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1598,12 +1598,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>x_tension_de_arranque</t>
+          <t>x_corriente_de_carga_maxima</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tensión de arranque</t>
+          <t>Corriente de carga máxima</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1630,12 +1630,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>x_configuracion_de_usuario</t>
+          <t>x_conectividad</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Configuración de usuario</t>
+          <t>Conectividad</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1662,12 +1662,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>x_output_auto</t>
+          <t>x_proteccion_contra_cortocircuitos_de_salida</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Output Auto</t>
+          <t>Protección contra cortocircuitos de salida</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1694,12 +1694,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>x_marco_del_panel</t>
+          <t>x_proteccion_contra_sobretension_de_salida</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Marco del panel</t>
+          <t>Protección contra sobretensión de salida</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1726,12 +1726,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>x_input_usb_c</t>
+          <t>x_apoyo</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Input USB-C</t>
+          <t>Apoyo</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1758,12 +1758,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>x_longitud</t>
+          <t>x_deteccion_de_resistencia_de_aislamiento</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Longitud</t>
+          <t>Detección de resistencia de aislamiento</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1790,12 +1790,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>x_toma_de_entrada</t>
+          <t>x_lumen_al_metro</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Toma de entrada</t>
+          <t>Lumen al metro</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1822,12 +1822,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>x_temperatura_d'esercizio</t>
+          <t>x_tamano_de_la_bateria</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Temperatura d'Esercizio</t>
+          <t>Tamaño de la batería</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1854,12 +1854,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>x_lifecycle_in_cicli</t>
+          <t>x_rango_de_temperatura_recomendado</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Lifecycle in cicli</t>
+          <t>Rango de temperatura recomendado</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1886,12 +1886,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>x_bateria</t>
+          <t>x_numero_de_llaves</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Batería</t>
+          <t>numero de llaves</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1918,12 +1918,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>x_output_qc</t>
+          <t>x_altitud_maxima_de_funcionamiento</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Output QC</t>
+          <t>Altitud máxima de funcionamiento</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1950,12 +1950,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>x_coef__temperatura_actual</t>
+          <t>x_entrada_nominal_rms</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Coef. temperatura actual</t>
+          <t>Entrada nominal (rms)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1982,12 +1982,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>x_tipo_de_bateria</t>
+          <t>x_grado_de_proteccion</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Tipo de Batería</t>
+          <t>Grado de protección</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2014,12 +2014,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>x_consumo_energetico_nocturno</t>
+          <t>x_tension_en_el_punto_de_maxima_potencia_</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Consumo energético nocturno</t>
+          <t>Tensión en el punto de máxima potencia.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2046,12 +2046,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>x_range_tensione_mppt</t>
+          <t>x_entrada_maxima</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Range tensione MPPT</t>
+          <t>Entrada máxima</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2078,12 +2078,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>x_durata</t>
+          <t>x_precision</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Durata</t>
+          <t>Precisión</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2110,12 +2110,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>x_c_rating_carica</t>
+          <t>x_ean</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>C rating carica</t>
+          <t>EAN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2142,12 +2142,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>x_proteccion_contra_sobrecorriente_de_salida</t>
+          <t>x_respuesta_frecuente</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Protección contra sobrecorriente de salida</t>
+          <t>Respuesta frecuente</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2174,12 +2174,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>x_comunicacion_serial</t>
+          <t>x_tension_de_carga</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Comunicación serial</t>
+          <t>Tensión de carga</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2206,12 +2206,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>x_respuesta_frecuente</t>
+          <t>x_efficienza_mppt</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Respuesta frecuente</t>
+          <t>Efficienza MPPT</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2238,12 +2238,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>x_espesor</t>
+          <t>x_salida_de_potencia_continua</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Espesor</t>
+          <t>Salida de potencia continua</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2270,12 +2270,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>x_capacidad_de_la_bateria_ah</t>
+          <t>x_proteccion_contra_sobrecorriente_de_salida</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Capacidad de la batería (Ah)</t>
+          <t>Protección contra sobrecorriente de salida</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2302,12 +2302,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>x_altura</t>
+          <t>x_sensibilidad_del_microfono</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Altura</t>
+          <t>Sensibilidad del micrófono</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2334,12 +2334,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>x_coef__temperatura_voltaje</t>
+          <t>x_output_qc</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Coef. temperatura Voltaje</t>
+          <t>Output QC</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2366,12 +2366,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>x_interfaz_de_conexion</t>
+          <t>x_cadenas_para_mppt</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Interfaz de conexión</t>
+          <t>Cadenas para MPPT</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2398,12 +2398,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>x_conectividad</t>
+          <t>x_s_n</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Conectividad</t>
+          <t>S/N</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2430,12 +2430,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>x_output_ac</t>
+          <t>x_linealidad</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Output AC</t>
+          <t>Linealidad</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2462,12 +2462,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>x_proteccion_contra_sobretension_de_salida</t>
+          <t>x_seccion_de_cables</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Protección contra sobretensión de salida</t>
+          <t>Sección de cables</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2494,12 +2494,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>x_entrada_nominal_rms</t>
+          <t>x_corriente_de_salida</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Entrada nominal (rms)</t>
+          <t>Corriente de salida</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2526,12 +2526,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>x_curva_de_carga</t>
+          <t>x_ciclos_de_carga_descarga</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Curva de carga</t>
+          <t>Ciclos de carga/descarga</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2558,12 +2558,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>x_estrategia_de_carga_para_la_bateria_de_iones_de_litio_</t>
+          <t>x_longitud_del_cable</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Estrategia de carga para la batería de iones de litio.</t>
+          <t>Longitud del cable</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2590,12 +2590,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>x_codigo_de_la_familia</t>
+          <t>x_sensor_de_temperatura_externo</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Código de la Familia</t>
+          <t>Sensor de temperatura externo</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2622,12 +2622,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>x_corrente_al_metro</t>
+          <t>x_bms</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Corrente al metro</t>
+          <t>BMS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2654,12 +2654,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>x_output_usb_c</t>
+          <t>x_flujo_luminoso</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Output USB C</t>
+          <t>Flujo luminoso</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2686,12 +2686,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>x_output_dc</t>
+          <t>x_tension_de_red</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Output DC</t>
+          <t>Tensión de red</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2718,12 +2718,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>x_proteccion_contra_rayos_de_la_entrada_fotovoltaica</t>
+          <t>x_watt_al_metro</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Protección contra rayos de la entrada fotovoltaica</t>
+          <t>Watt al metro</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2750,12 +2750,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>x_memoria</t>
+          <t>x_tolerancia_de_potencia</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Memoria</t>
+          <t>Tolerancia de potencia</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2782,12 +2782,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>x_cadenas_para_mppt</t>
+          <t>x_c_rating_scarica</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Cadenas para MPPT</t>
+          <t>C rating scarica</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2814,12 +2814,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>x_longitud_del_cable</t>
+          <t>x_corriente_maxima_de_descarga</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Longitud del cable</t>
+          <t>Corriente máxima de descarga</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2846,12 +2846,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>x_sensibilidad_del_microfono</t>
+          <t>x_ruido</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Sensibilidad del micrófono</t>
+          <t>Ruido</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2878,12 +2878,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>x_jacobo</t>
+          <t>x_factor_de_potencia</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Jacobo</t>
+          <t>Factor de potencia</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2910,12 +2910,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>x_fuerza</t>
+          <t>x_frecuencia_de_red</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Fuerza</t>
+          <t>Frecuencia de red</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2942,12 +2942,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>x_capacidad_de_la_bateria</t>
+          <t>x_eficiencia_del_modulo</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Capacidad de la batería</t>
+          <t>Eficiencia del módulo</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2974,12 +2974,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>x_corriente_de_cortocircuito_mppt</t>
+          <t>x_potencia_de_salida</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Corriente de cortocircuito MPPT</t>
+          <t>Potencia de salida</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3006,12 +3006,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>x_voltaje_maximo_del_sistema</t>
+          <t>x_tension_maxima_de_entrada</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Voltaje máximo del sistema</t>
+          <t>Tensión máxima de entrada</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3038,12 +3038,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>x_capacidad</t>
+          <t>x_pmpo</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Capacidad</t>
+          <t>PMPO</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3070,12 +3070,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>x_garantia_de_productividad</t>
+          <t>x_comunicacion</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Garantía de productividad</t>
+          <t>Comunicación</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3102,12 +3102,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>x_tension_minima_de_funcionamiento</t>
+          <t>x_relacion_de_velocidad</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tensión mínima de funcionamiento</t>
+          <t>relación de velocidad</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3134,12 +3134,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>x_se_puede_pedir_en_multiplos_de</t>
+          <t>x_corrente_al_metro</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Se puede pedir en múltiplos de</t>
+          <t>Corrente al metro</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3166,12 +3166,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>x_caja_de_conexiones</t>
+          <t>x_abra_el_circuito_de_voltaje</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Caja de conexiones</t>
+          <t>Abra el circuito de voltaje</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3198,12 +3198,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>x_error_de_fase</t>
+          <t>x_comunicacion_remota</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>error de fase</t>
+          <t>comunicación remota</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3230,12 +3230,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>x_regulaciones_de_seguridad</t>
+          <t>x_longitud</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Regulaciones de seguridad</t>
+          <t>Longitud</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3262,12 +3262,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>x_tipo_regulable</t>
+          <t>x_chip_led</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Tipo regulable</t>
+          <t>Chip LED</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3294,12 +3294,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>x_url</t>
+          <t>x_potencia_de_entrada_de_carga</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>Potencia de entrada de carga</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3326,12 +3326,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>x_actualizacion_de_firmware</t>
+          <t>x_interfaz_de_conexion</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Actualización de firmware</t>
+          <t>Interfaz de conexión</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3358,12 +3358,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>x_garantia_de_fabricacion</t>
+          <t>x_output_dc</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Garantía de fabricación</t>
+          <t>Output DC</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3390,12 +3390,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>x_ugr</t>
+          <t>x_emc</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>UGR</t>
+          <t>EMC</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3422,12 +3422,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>x_sensor</t>
+          <t>x_color_de_la_luz</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>sensor</t>
+          <t>Color de la luz</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3454,12 +3454,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>x_poder_absorbido</t>
+          <t>x_potencia_de_salida_maxima</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Poder absorbido</t>
+          <t>Potencia de salida máxima</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3486,12 +3486,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>x_tension_de_salida</t>
+          <t>x_codigo_de_la_familia</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Tensión de salida</t>
+          <t>Código de la Familia</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3518,12 +3518,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>x_tipo_de_antena</t>
+          <t>x_tension_de_corte_al_final_de_la_descarga</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Tipo de antena</t>
+          <t>Tensión de corte (al final de la descarga)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3550,12 +3550,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>x_carga_maxima_del_panel</t>
+          <t>x_corriente_de_cortocircuito</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Carga máxima del panel</t>
+          <t>Corriente de cortocircuito</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3582,12 +3582,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>x_corriente_maxima_de_salida</t>
+          <t>x_distancia_de_deteccion</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Corriente máxima de salida</t>
+          <t>Distancia de detección</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3614,12 +3614,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>x_valor_pico</t>
+          <t>x_piezas_en_la_caja</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Valor pico</t>
+          <t>Piezas en la caja</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3646,12 +3646,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>x_dimensioni_axlxp</t>
+          <t>x_numero_de_celdas</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Dimensioni (AxLxP)</t>
+          <t>Número de celdas</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3678,12 +3678,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>x_ean</t>
+          <t>x_resolucion</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>EAN</t>
+          <t>Resolución</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3710,12 +3710,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>x_seccion_de_coleccion</t>
+          <t>x_voltaje_maximo_del_sistema</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Sección de colección</t>
+          <t>Voltaje máximo del sistema</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3742,12 +3742,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>x_salida_nominal</t>
+          <t>x_input_dc</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Salida nominal</t>
+          <t>Input DC</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3774,12 +3774,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>x_output_usb_1</t>
+          <t>x_consumo_de_energia</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Output USB 1</t>
+          <t>Consumo de energía</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3838,12 +3838,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>x_efecto_frecuente</t>
+          <t>x_productor</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>efecto frecuente</t>
+          <t>Productor</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3870,12 +3870,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>x_forma</t>
+          <t>x_numero_de_led</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Forma</t>
+          <t>Número de LED</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3902,12 +3902,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>x_pmpo</t>
+          <t>x_input_usb_c</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>PMPO</t>
+          <t>Input USB-C</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3934,12 +3934,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>x_tiempo_de_carga</t>
+          <t>x_coef_temperatura_actual</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Tiempo de carga</t>
+          <t>Coef. temperatura actual</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3966,12 +3966,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>x_resistencia_maxima_de_muestreo</t>
+          <t>x_interfaz_de_datos</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Resistencia máxima de muestreo</t>
+          <t>Interfaz de datos</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3998,12 +3998,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>x_efficienza_mppt</t>
+          <t>x_versione_bt</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Efficienza MPPT</t>
+          <t>Versione BT</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4030,12 +4030,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>x_potencia_de_salida</t>
+          <t>x_conector_usb</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Potencia de salida</t>
+          <t>conector USB</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4062,12 +4062,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>x_lumen_al_metro</t>
+          <t>x_espesor</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Lumen al metro</t>
+          <t>Espesor</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4094,12 +4094,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>x_material</t>
+          <t>x_sensor</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Material</t>
+          <t>sensor</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4126,12 +4126,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>x_seccion_de_cables</t>
+          <t>x_capacidad_de_la_bateria_ah</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Sección de cables</t>
+          <t>Capacidad de la batería (Ah)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4158,12 +4158,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>x_ciclos_de_encendido_apagado</t>
+          <t>x_forma</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Ciclos de encendido/apagado</t>
+          <t>Forma</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4190,12 +4190,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>x_cri</t>
+          <t>x_unidad_de_medida</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>Unidad de medida</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4222,12 +4222,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>x_watt_al_metro</t>
+          <t>x_input_ac</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Watt al metro</t>
+          <t>Input AC</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4254,12 +4254,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>x_dimension</t>
+          <t>x_bateria_recargable</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Dimensión</t>
+          <t>Batería recargable</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4286,12 +4286,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>x_tension_en_el_punto_de_maxima_potencia_</t>
+          <t>x_bateria</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Tensión en el punto de máxima potencia.</t>
+          <t>Batería</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4318,12 +4318,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>x_unidad_de_medida</t>
+          <t>x_proteccion_contra_sobretensiones</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Unidad de medida</t>
+          <t>Protección contra sobretensiones</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4350,12 +4350,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>x_haz_de_luz</t>
+          <t>x_vocero</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Haz de luz</t>
+          <t>Vocero</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4382,12 +4382,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>x_output_inverter</t>
+          <t>x_potencia_equivalente</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Output inverter</t>
+          <t>Potencia equivalente</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4414,12 +4414,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>x_c_rating_scarica</t>
+          <t>x_jacobo</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>C rating scarica</t>
+          <t>Jacobo</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4446,12 +4446,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>x_apoyo</t>
+          <t>x_longitud_de_la_bobina</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Apoyo</t>
+          <t>Longitud de la bobina</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4478,12 +4478,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>x_tolerancia_de_potencia</t>
+          <t>x_intervalo_de_adquisicion_de_datos</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Tolerancia de potencia</t>
+          <t>Intervalo de adquisición de datos</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4510,12 +4510,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>x_longitud_de_la_bobina</t>
+          <t>x_corriente_maxima_de_salida</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Longitud de la bobina</t>
+          <t>Corriente máxima de salida</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4542,12 +4542,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>x_linealidad</t>
+          <t>x_toma_de_entrada</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Linealidad</t>
+          <t>Toma de entrada</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4574,12 +4574,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>x_tension_nominal_mppt</t>
+          <t>x_corriente_maxima</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Tensión nominal MPPT</t>
+          <t>Corriente máxima</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4606,12 +4606,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>x_color_de_la_luz</t>
+          <t>x_cables_de_salida</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Color de la luz</t>
+          <t>Cables de salida</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4638,12 +4638,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>x_regulable</t>
+          <t>x_output_auto</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Regulable</t>
+          <t>Output Auto</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4670,12 +4670,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>x_thdi</t>
+          <t>x_tiempo_de_carga</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>THDi</t>
+          <t>Tiempo de carga</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4702,12 +4702,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>x_deteccion_de_resistencia_de_aislamiento</t>
+          <t>x_corriente_en_el_punto_de_maxima_potencia_</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Detección de resistencia de aislamiento</t>
+          <t>Corriente en el punto de máxima potencia.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4734,12 +4734,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>x_salida_de_potencia_continua</t>
+          <t>x_regulable</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Salida de potencia continua</t>
+          <t>Regulable</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4766,12 +4766,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>x_resolucion</t>
+          <t>x_control_remoto</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Resolución</t>
+          <t>Control remoto</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4798,12 +4798,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>x_woofer</t>
+          <t>x_potencia_maxima_de_entrada</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Woofer</t>
+          <t>Potencia máxima de entrada</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4830,12 +4830,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>x_numero_de_led</t>
+          <t>x_thdi</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Número de LED</t>
+          <t>THDi</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4862,12 +4862,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>x_chip_led</t>
+          <t>x_tipo_de_antena</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Chip LED</t>
+          <t>Tipo de antena</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4894,12 +4894,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>x_coef__temperatura_fuerza</t>
+          <t>x_proteccion_contra_polaridad_inversa_de_la_entrada_de_la_cad</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Coef. temperatura fuerza</t>
+          <t>Protección contra polaridad inversa de la entrada de la cadena fotovoltaica</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4926,12 +4926,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>x_proteccion_contra_polaridad_inversa_de_la_entrada_de_la_cad</t>
+          <t>x_garantia_de_productividad</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Protección contra polaridad inversa de la entrada de la cadena fotovoltaica</t>
+          <t>Garantía de productividad</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4958,12 +4958,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>x_control_remoto</t>
+          <t>x_control_en_tiempo_real</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Control remoto</t>
+          <t>control en tiempo real</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4990,12 +4990,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>x_numero_de_rastreadores_mppt</t>
+          <t>x_factor_de_potencia_fp</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Número de rastreadores MPPT</t>
+          <t>Factor de potencia (FP)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5022,12 +5022,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>x_panel_solar</t>
+          <t>x_piezas_por_palet</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Panel solar</t>
+          <t>Piezas por palet</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5054,12 +5054,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>x_tipo_de_vidrio</t>
+          <t>x_capacidad_de_la_bateria</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Tipo de vidrio</t>
+          <t>Capacidad de la batería</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5086,12 +5086,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>x_luce_a_led</t>
+          <t>x_working_time</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Luce a LED</t>
+          <t>Working time</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5118,12 +5118,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>x_sensor_de_temperatura_externo</t>
+          <t>x_potencia_maxima_de_ca</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Sensor de temperatura externo</t>
+          <t>Potencia máxima de CA</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5150,12 +5150,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>x_comunicacion</t>
+          <t>x_material</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Comunicación</t>
+          <t>Material</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5182,12 +5182,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>x_rango_de_temperatura_recomendado</t>
+          <t>x_accesorios_por_sku</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Rango de temperatura recomendado</t>
+          <t>Accesorios por SKU</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5214,12 +5214,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>x_factor_de_potencia_fp</t>
+          <t>x_dimension</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Factor de potencia (FP)</t>
+          <t>Dimensión</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5246,12 +5246,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>x_cables_de_salida</t>
+          <t>x_valor_pico</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Cables de salida</t>
+          <t>Valor pico</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5278,12 +5278,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>x_frequenza_wireless</t>
+          <t>x_color</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Frequenza wireless</t>
+          <t>Color</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5310,12 +5310,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>x_tension_de_red</t>
+          <t>x_potencia_nominal</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Tensión de red</t>
+          <t>Potencia nominal</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5342,12 +5342,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>x_corriente_en_el_punto_de_maxima_potencia_</t>
+          <t>x_tension_de_arranque</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Corriente en el punto de máxima potencia.</t>
+          <t>Tensión de arranque</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5374,12 +5374,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>x_color</t>
+          <t>x_tipo_de_carga</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Color</t>
+          <t>Tipo de carga</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5406,12 +5406,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>x_factor_de_potencia</t>
+          <t>x_regulaciones_de_seguridad</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Factor de potencia</t>
+          <t>Regulaciones de seguridad</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5438,12 +5438,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>x_frecuencia_de_red</t>
+          <t>x_embalaje</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Frecuencia de red</t>
+          <t>embalaje</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5470,12 +5470,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>x_potencia_nominal</t>
+          <t>x_eficacia_luminosa</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Potencia nominal</t>
+          <t>Eficacia luminosa</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5502,12 +5502,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>x_tension_de_alimentacion</t>
+          <t>x_marca_del_driver</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Tensión de alimentación</t>
+          <t>Marca del Driver</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5534,12 +5534,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>x_tension_de_carga</t>
+          <t>x_estrategia_de_carga_para_la_bateria_de_iones_de_litio_</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Tensión de carga</t>
+          <t>Estrategia de carga para la batería de iones de litio.</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5566,12 +5566,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>x_s_n</t>
+          <t>x_tension_nominal_mppt</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>S/N</t>
+          <t>Tensión nominal MPPT</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5598,12 +5598,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>x_tipo_de_celula</t>
+          <t>x_potencia_de_entrada</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Tipo de célula</t>
+          <t>Potencia de entrada</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5630,12 +5630,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>x_corriente_maxima_de_descarga</t>
+          <t>x_coef_temperatura_voltaje</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Corriente máxima de descarga</t>
+          <t>Coef. temperatura Voltaje</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5662,12 +5662,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>x_ataque</t>
+          <t>x_c_rating_carica</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Ataque</t>
+          <t>C rating carica</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5694,12 +5694,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>x_altitud_maxima_de_funcionamiento</t>
+          <t>x_output_ac</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Altitud máxima de funcionamiento</t>
+          <t>Output AC</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5726,12 +5726,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>x_potencia_equivalente</t>
+          <t>x_frequenza_wireless</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Potencia equivalente</t>
+          <t>Frequenza wireless</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5758,12 +5758,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>x_entrada_maxima</t>
+          <t>x_corriente_maxima_para_mppt</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Entrada máxima</t>
+          <t>Corriente máxima para MPPT</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5790,12 +5790,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>x_piezas_por_palet</t>
+          <t>x_voltaje_de_la_bateria</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Piezas por palet</t>
+          <t>Voltaje de la batería</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5822,12 +5822,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>x_consumo_de_energia</t>
+          <t>x_autonomia</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Consumo de energía</t>
+          <t>Autonomia</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5854,12 +5854,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>x_numero_de_llaves</t>
+          <t>x_unidad_de_control_de_corriente_residual</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>numero de llaves</t>
+          <t>Unidad de control de corriente residual</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5886,12 +5886,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>x_vocero</t>
+          <t>x_fuerza</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Vocero</t>
+          <t>Fuerza</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5918,12 +5918,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>x_tecnologia_led</t>
+          <t>x_nombre_de_la_marca</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Tecnologia LED</t>
+          <t>Nombre de la marca</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5950,12 +5950,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>x_eficacia_luminosa</t>
+          <t>x_poder_absorbido</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Eficacia luminosa</t>
+          <t>Poder absorbido</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5982,12 +5982,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>x_potencia_de_salida_continua</t>
+          <t>x_carga_maxima_del_panel</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Potencia de salida continua</t>
+          <t>Carga máxima del panel</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6014,12 +6014,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>x_touch</t>
+          <t>x_memoria</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Touch</t>
+          <t>Memoria</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6046,12 +6046,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>x_enfriandose</t>
+          <t>x_actualizacion_de_firmware</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Enfriándose</t>
+          <t>Actualización de firmware</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6078,12 +6078,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>x_corriente_maxima</t>
+          <t>x_garanzia</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Corriente máxima</t>
+          <t>Garanzia</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6110,12 +6110,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>x_maxima_eficiencia</t>
+          <t>x_output_inverter</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Máxima eficiencia</t>
+          <t>Output inverter</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6142,12 +6142,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>x_tipo_de_instalacion</t>
+          <t>x_proteccion_anti_isla</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Tipo de instalación</t>
+          <t>Protección anti-isla</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6174,12 +6174,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>x_carga_maxima</t>
+          <t>x_wireless</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Carga máxima</t>
+          <t>Wireless</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6206,12 +6206,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>x_distancia_de_deteccion</t>
+          <t>x_numero_de_lamparas</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Distancia de detección</t>
+          <t>Número de lámparas</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6238,12 +6238,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>x_temperatura_nominal_de_funcionamiento</t>
+          <t>x_enfriandose</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Temperatura nominal de funcionamiento</t>
+          <t>Enfriándose</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6270,12 +6270,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>x_temperatura_de_color_cti</t>
+          <t>x_tension_de_salida</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Temperatura de color (CTI)</t>
+          <t>Tensión de salida</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6302,12 +6302,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>x_embalaje</t>
+          <t>x_sin_parpadeo_sin_parpadeo</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>embalaje</t>
+          <t>Sin parpadeo (sin parpadeo)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6334,12 +6334,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>x_sensor</t>
+          <t>x_tipo_regulable</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Sensor</t>
+          <t>Tipo regulable</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6366,12 +6366,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>x_sensor_de_imagen</t>
+          <t>x_efecto_frecuente</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Sensor de imagen</t>
+          <t>efecto frecuente</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6398,12 +6398,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>x_proteccion_anti_isla</t>
+          <t>x_resistencia_maxima_de_muestreo</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Protección anti-isla</t>
+          <t>Resistencia máxima de muestreo</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6430,12 +6430,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>x_eficiencia_del_modulo</t>
+          <t>x_touch</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Eficiencia del módulo</t>
+          <t>Touch</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6462,12 +6462,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>x_ciclos_de_carga_descarga</t>
+          <t>x_url</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ciclos de carga/descarga</t>
+          <t>url</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6494,12 +6494,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>x_tension_de_corte_al_final_de_la_descarga</t>
+          <t>x_maxima_eficiencia</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Tensión de corte (al final de la descarga)</t>
+          <t>Máxima eficiencia</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6526,12 +6526,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>x_conector_usb</t>
+          <t>x_corriente_de_cortocircuito_mppt</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>conector USB</t>
+          <t>Corriente de cortocircuito MPPT</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6590,12 +6590,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>x_regulaciones_de_red</t>
+          <t>x_tension_nominal</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Regulaciones de red</t>
+          <t>tensión nominal</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6622,12 +6622,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>x_id_eprel</t>
+          <t>x_energia_del_modulo_fotovoltaico</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ID EPREL</t>
+          <t>Energía del módulo fotovoltaico</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6654,12 +6654,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>x_emc</t>
+          <t>x_panel_solar</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>EMC</t>
+          <t>Panel solar</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -6686,12 +6686,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>x_input_ac</t>
+          <t>x_consumo_energetico_nocturno</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Input AC</t>
+          <t>Consumo energético nocturno</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -6718,12 +6718,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>x_corriente_de_descarga_estandar</t>
+          <t>x_distorsion_armonica_actual</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Corriente de descarga estándar</t>
+          <t>Distorsión armónica actual</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -6750,12 +6750,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>x_versione_bt</t>
+          <t>x_tension_minima_de_funcionamiento</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Versione BT</t>
+          <t>Tensión mínima de funcionamiento</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -6782,12 +6782,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>x_numero_de_lamparas</t>
+          <t>x_version</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Número de lámparas</t>
+          <t>Versión</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -6814,12 +6814,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>x_bms</t>
+          <t>x_luce_a_led</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>BMS</t>
+          <t>Luce a LED</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -6846,12 +6846,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>x_potencia_maxima_de_ca</t>
+          <t>x_sensor_de_imagen</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Potencia máxima de CA</t>
+          <t>Sensor de imagen</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -6878,12 +6878,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>x_potencia_nominal_de_ca</t>
+          <t>x_tipo_de_instalacion</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Potencia nominal de CA</t>
+          <t>Tipo de instalación</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -6910,12 +6910,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>x_corriente_de_carga_maxima</t>
+          <t>x_temperatura_de_color_cti</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Corriente de carga máxima</t>
+          <t>Temperatura de color (CTI)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -6942,12 +6942,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>x_distorsion_armonica_actual</t>
+          <t>x_grado_de_proteccion_contra_impactos</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Distorsión armónica actual</t>
+          <t>Grado de protección contra impactos</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -6974,12 +6974,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>x_piezas_en_la_caja</t>
+          <t>x_descripcion</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Piezas en la caja</t>
+          <t>descripcion</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -7006,12 +7006,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>x_energia_del_modulo_fotovoltaico</t>
+          <t>x_metodo_de_montaje</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Energía del módulo fotovoltaico</t>
+          <t>Método de montaje</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7038,12 +7038,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>x_unidad_de_control_de_corriente_residual</t>
+          <t>x_coef_temperatura_fuerza</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Unidad de control de corriente residual</t>
+          <t>Coef. temperatura fuerza</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -7070,12 +7070,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>x_metodo_de_montaje</t>
+          <t>x_frecuencia_de_radio_fm</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Método de montaje</t>
+          <t>frecuencia de radio fm</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7102,12 +7102,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>x_precision</t>
+          <t>x_tipo_de_celula</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Precisión</t>
+          <t>Tipo de célula</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7134,12 +7134,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>x_nombre_de_la_marca</t>
+          <t>x_se_puede_pedir_en_multiplos_de</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Nombre de la marca</t>
+          <t>Se puede pedir en múltiplos de</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7166,12 +7166,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>x_version</t>
+          <t>x_salida_nominal</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Versión</t>
+          <t>Salida nominal</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7198,12 +7198,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>x_control_en_tiempo_real</t>
+          <t>x_cri</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>control en tiempo real</t>
+          <t>CRI</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7230,12 +7230,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>x_voltaje_de_la_bateria</t>
+          <t>x_corriente_de_descarga_estandar</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Voltaje de la batería</t>
+          <t>Corriente de descarga estándar</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -7262,12 +7262,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>x_interfaz_de_datos</t>
+          <t>x_garantia_de_fabricacion</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Interfaz de datos</t>
+          <t>Garantía de fabricación</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7294,12 +7294,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>x_working_time</t>
+          <t>x_ciclos_de_encendido_apagado</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Working time</t>
+          <t>Ciclos de encendido/apagado</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7326,12 +7326,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>x_corriente_de_cortocircuito</t>
+          <t>x_comunicacion_serial</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Corriente de cortocircuito</t>
+          <t>Comunicación serial</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7358,12 +7358,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>x_numero_de_celdas</t>
+          <t>x_ataque</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Número de celdas</t>
+          <t>Ataque</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7390,12 +7390,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>x_potencia_maxima_de_entrada</t>
+          <t>x_tension_de_alimentacion</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Potencia máxima de entrada</t>
+          <t>Tensión de alimentación</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">

--- a/vtac_italia/DISTINCT_FIELDS_EXCEL.xlsx
+++ b/vtac_italia/DISTINCT_FIELDS_EXCEL.xlsx
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>x_output_ac</t>
+          <t>x_lifecycle_in_cicli</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Output AC</t>
+          <t>Lifecycle in cicli</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -510,12 +510,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>x_tiempo_de_carga</t>
+          <t>x_output_usb_c</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tiempo de carga</t>
+          <t>Output USB C</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -542,12 +542,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>x_descripcion</t>
+          <t>x_capacidad</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>descripcion</t>
+          <t>Capacidad</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -574,12 +574,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>x_regulaciones_de_red</t>
+          <t>x_campo_de_deteccion</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Regulaciones de red</t>
+          <t>Campo de detección</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -606,12 +606,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>x_efficienza_mppt</t>
+          <t>x_curva_de_carga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Efficienza MPPT</t>
+          <t>Curva de carga</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,12 +638,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>x_longitud_de_la_bobina</t>
+          <t>x_id_eprel</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Longitud de la bobina</t>
+          <t>ID EPREL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -670,12 +670,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>x_marco_del_panel</t>
+          <t>x_seccion_de_coleccion</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Marco del panel</t>
+          <t>Sección de colección</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -702,12 +702,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>x_distancia_de_deteccion</t>
+          <t>x_humedad_relativa</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Distancia de detección</t>
+          <t>Humedad relativa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -734,12 +734,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>x_unidad_de_medida</t>
+          <t>x_ugr</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Unidad de medida</t>
+          <t>UGR</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -766,12 +766,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>x_lumen_al_metro</t>
+          <t>x_configuracion_de_usuario</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lumen al metro</t>
+          <t>Configuración de usuario</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -798,12 +798,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>x_working_time</t>
+          <t>x_haz_de_luz</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Working time</t>
+          <t>Haz de luz</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,12 +830,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>x_proteccion_contra_cortocircuitos_de_salida</t>
+          <t>x_numero_de_rastreadores_mppt</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Protección contra cortocircuitos de salida</t>
+          <t>Número de rastreadores MPPT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -862,12 +862,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>x_capacidad</t>
+          <t>x_regulaciones_de_red</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Capacidad</t>
+          <t>Regulaciones de red</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -926,12 +926,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>x_frecuencia_de_radio_fm</t>
+          <t>x_carga_maxima</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>frecuencia de radio fm</t>
+          <t>Carga máxima</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -958,12 +958,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>x_output_auto</t>
+          <t>x_temperatura_nominal_de_funcionamiento</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Output Auto</t>
+          <t>Temperatura nominal de funcionamiento</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -990,12 +990,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>x_numero_de_lamparas</t>
+          <t>x_dimensioni_axlxp</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Número de lámparas</t>
+          <t>Dimensioni (AxLxP)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1022,12 +1022,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>x_valor_pico</t>
+          <t>x_caja_de_conexiones</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Valor pico</t>
+          <t>Caja de conexiones</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1054,12 +1054,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>x_potencia_equivalente</t>
+          <t>x_proteccion_contra_rayos_de_la_entrada_fotovoltaica</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Potencia equivalente</t>
+          <t>Protección contra rayos de la entrada fotovoltaica</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1086,12 +1086,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>x_intervalo_de_adquisicion_de_datos</t>
+          <t>x_tecnologia_led</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Intervalo de adquisición de datos</t>
+          <t>Tecnologia LED</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1118,12 +1118,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>x_control_en_tiempo_real</t>
+          <t>x_durata</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>control en tiempo real</t>
+          <t>Durata</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1150,12 +1150,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>x_output_usb_1</t>
+          <t>x_marco_del_panel</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Output USB 1</t>
+          <t>Marco del panel</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1182,12 +1182,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>x_proteccion_contra_sobretension_de_salida</t>
+          <t>x_woofer</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Protección contra sobretensión de salida</t>
+          <t>Woofer</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1214,12 +1214,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>x_respuesta_frecuente</t>
+          <t>x_error_de_fase</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Respuesta frecuente</t>
+          <t>error de fase</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1246,12 +1246,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>x_grado_de_proteccion_contra_impactos</t>
+          <t>x_output_usb_2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Grado de protección contra impactos</t>
+          <t>Output USB 2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1278,12 +1278,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>x_rango_de_temperatura_recomendado</t>
+          <t>x_altura</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Rango de temperatura recomendado</t>
+          <t>Altura</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1310,12 +1310,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>x_woofer</t>
+          <t>x_sku</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Woofer</t>
+          <t>SKU</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1342,12 +1342,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>x_wireless</t>
+          <t>x_tipo_de_vidrio</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Wireless</t>
+          <t>Tipo de vidrio</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1374,12 +1374,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>x_versione_bt</t>
+          <t>x_temperatura_d'esercizio</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Versione BT</t>
+          <t>Temperatura d'Esercizio</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1406,12 +1406,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>x_proteccion_contra_sobrecorriente_de_salida</t>
+          <t>x_range_tensione_mppt</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Protección contra sobrecorriente de salida</t>
+          <t>Range tensione MPPT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1438,12 +1438,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>x_voltaje_maximo_del_sistema</t>
+          <t>x_output_usb_1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Voltaje máximo del sistema</t>
+          <t>Output USB 1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1470,12 +1470,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>x_regulable</t>
+          <t>x_tipo_de_bateria</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Regulable</t>
+          <t>Tipo de Batería</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1502,12 +1502,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>x_humedad_relativa</t>
+          <t>x_sensor</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Humedad relativa</t>
+          <t>Sensor</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1534,12 +1534,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>x_dimension</t>
+          <t>x_corriente_de_carga_estandar</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Dimensión</t>
+          <t>Corriente de carga estándar</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1566,12 +1566,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>x_caja_de_conexiones</t>
+          <t>x_potencia_de_salida_continua</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Caja de conexiones</t>
+          <t>Potencia de salida continua</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1598,12 +1598,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>x_color</t>
+          <t>x_corriente_de_carga_maxima</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Color</t>
+          <t>Corriente de carga máxima</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1630,12 +1630,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>x_memoria</t>
+          <t>x_conectividad</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Memoria</t>
+          <t>Conectividad</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1662,12 +1662,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>x_emc</t>
+          <t>x_proteccion_contra_cortocircuitos_de_salida</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>EMC</t>
+          <t>Protección contra cortocircuitos de salida</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1694,12 +1694,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>x_entrada_maxima</t>
+          <t>x_proteccion_contra_sobretension_de_salida</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Entrada máxima</t>
+          <t>Protección contra sobretensión de salida</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1726,12 +1726,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>x_ciclos_de_encendido_apagado</t>
+          <t>x_apoyo</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ciclos de encendido/apagado</t>
+          <t>Apoyo</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1758,12 +1758,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>x_factor_de_potencia_fp</t>
+          <t>x_deteccion_de_resistencia_de_aislamiento</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Factor de potencia (FP)</t>
+          <t>Detección de resistencia de aislamiento</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1790,12 +1790,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>x_sensor_de_temperatura_externo</t>
+          <t>x_lumen_al_metro</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sensor de temperatura externo</t>
+          <t>Lumen al metro</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1822,12 +1822,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>x_embalaje</t>
+          <t>x_tamano_de_la_bateria</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>embalaje</t>
+          <t>Tamaño de la batería</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1854,12 +1854,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>x_coef__temperatura_actual</t>
+          <t>x_rango_de_temperatura_recomendado</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Coef. temperatura actual</t>
+          <t>Rango de temperatura recomendado</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1886,12 +1886,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>x_lifecycle_in_cicli</t>
+          <t>x_numero_de_llaves</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Lifecycle in cicli</t>
+          <t>numero de llaves</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1918,12 +1918,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>x_efecto_frecuente</t>
+          <t>x_altitud_maxima_de_funcionamiento</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>efecto frecuente</t>
+          <t>Altitud máxima de funcionamiento</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1950,12 +1950,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>x_coef__temperatura_voltaje</t>
+          <t>x_entrada_nominal_rms</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Coef. temperatura Voltaje</t>
+          <t>Entrada nominal (rms)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1982,12 +1982,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>x_numero_de_led</t>
+          <t>x_grado_de_proteccion</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Número de LED</t>
+          <t>Grado de protección</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2014,12 +2014,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>x_c_rating_carica</t>
+          <t>x_tension_en_el_punto_de_maxima_potencia_</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>C rating carica</t>
+          <t>Tensión en el punto de máxima potencia.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2046,12 +2046,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>x_codigo_de_la_familia</t>
+          <t>x_entrada_maxima</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Código de la Familia</t>
+          <t>Entrada máxima</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2078,12 +2078,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>x_temperatura_nominal_de_funcionamiento</t>
+          <t>x_precision</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Temperatura nominal de funcionamiento</t>
+          <t>Precisión</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2110,12 +2110,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>x_frecuencia_de_red</t>
+          <t>x_ean</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Frecuencia de red</t>
+          <t>EAN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2142,12 +2142,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>x_corrente_al_metro</t>
+          <t>x_respuesta_frecuente</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Corrente al metro</t>
+          <t>Respuesta frecuente</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2174,12 +2174,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>x_temperatura_d'esercizio</t>
+          <t>x_tension_de_carga</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Temperatura d'Esercizio</t>
+          <t>Tensión de carga</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2206,12 +2206,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>x_material</t>
+          <t>x_efficienza_mppt</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Material</t>
+          <t>Efficienza MPPT</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2238,12 +2238,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>x_piezas_en_la_caja</t>
+          <t>x_salida_de_potencia_continua</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Piezas en la caja</t>
+          <t>Salida de potencia continua</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2270,12 +2270,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>x_bateria_recargable</t>
+          <t>x_proteccion_contra_sobrecorriente_de_salida</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Batería recargable</t>
+          <t>Protección contra sobrecorriente de salida</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2302,12 +2302,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>x_estrategia_de_carga_para_la_bateria_de_iones_de_litio_</t>
+          <t>x_sensibilidad_del_microfono</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Estrategia de carga para la batería de iones de litio.</t>
+          <t>Sensibilidad del micrófono</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2334,12 +2334,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>x_numero_de_rastreadores_mppt</t>
+          <t>x_output_qc</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Número de rastreadores MPPT</t>
+          <t>Output QC</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2366,12 +2366,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>x_numero_de_celdas</t>
+          <t>x_cadenas_para_mppt</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Número de celdas</t>
+          <t>Cadenas para MPPT</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2398,12 +2398,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>x_panel_solar</t>
+          <t>x_s_n</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Panel solar</t>
+          <t>S/N</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2430,12 +2430,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>x_coef__temperatura_fuerza</t>
+          <t>x_linealidad</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Coef. temperatura fuerza</t>
+          <t>Linealidad</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2462,12 +2462,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>x_tipo_de_vidrio</t>
+          <t>x_seccion_de_cables</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Tipo de vidrio</t>
+          <t>Sección de cables</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2494,12 +2494,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>x_cables_de_salida</t>
+          <t>x_corriente_de_salida</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cables de salida</t>
+          <t>Corriente de salida</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2526,12 +2526,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>x_cri</t>
+          <t>x_ciclos_de_carga_descarga</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>Ciclos de carga/descarga</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2558,12 +2558,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>x_chip_led</t>
+          <t>x_longitud_del_cable</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Chip LED</t>
+          <t>Longitud del cable</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2590,12 +2590,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>x_actualizacion_de_firmware</t>
+          <t>x_sensor_de_temperatura_externo</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Actualización de firmware</t>
+          <t>Sensor de temperatura externo</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2622,12 +2622,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>x_eficacia_luminosa</t>
+          <t>x_bms</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Eficacia luminosa</t>
+          <t>BMS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2654,12 +2654,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>x_error_de_fase</t>
+          <t>x_flujo_luminoso</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>error de fase</t>
+          <t>Flujo luminoso</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2686,12 +2686,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>x_potencia_maxima_de_ca</t>
+          <t>x_tension_de_red</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Potencia máxima de CA</t>
+          <t>Tensión de red</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2718,12 +2718,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>x_entrada_nominal_rms</t>
+          <t>x_watt_al_metro</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Entrada nominal (rms)</t>
+          <t>Watt al metro</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2750,12 +2750,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>x_output_usb_c</t>
+          <t>x_tolerancia_de_potencia</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Output USB C</t>
+          <t>Tolerancia de potencia</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2782,12 +2782,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>x_input_dc</t>
+          <t>x_c_rating_scarica</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Input DC</t>
+          <t>C rating scarica</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2846,12 +2846,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>x_comunicacion_remota</t>
+          <t>x_ruido</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>comunicación remota</t>
+          <t>Ruido</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2878,12 +2878,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>x_dimensioni_axlxp</t>
+          <t>x_factor_de_potencia</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Dimensioni (AxLxP)</t>
+          <t>Factor de potencia</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2910,12 +2910,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>x_corriente_de_descarga_estandar</t>
+          <t>x_frecuencia_de_red</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Corriente de descarga estándar</t>
+          <t>Frecuencia de red</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2942,12 +2942,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>x_pmpo</t>
+          <t>x_eficiencia_del_modulo</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PMPO</t>
+          <t>Eficiencia del módulo</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2974,12 +2974,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>x_corriente_maxima_para_mppt</t>
+          <t>x_potencia_de_salida</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Corriente máxima para MPPT</t>
+          <t>Potencia de salida</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3006,12 +3006,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>x_poder_absorbido</t>
+          <t>x_tension_maxima_de_entrada</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Poder absorbido</t>
+          <t>Tensión máxima de entrada</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3038,12 +3038,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>x_marca_del_driver</t>
+          <t>x_pmpo</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Marca del Driver</t>
+          <t>PMPO</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3070,12 +3070,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>x_relacion_de_velocidad</t>
+          <t>x_comunicacion</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>relación de velocidad</t>
+          <t>Comunicación</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3102,12 +3102,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>x_ean</t>
+          <t>x_relacion_de_velocidad</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>EAN</t>
+          <t>relación de velocidad</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3134,12 +3134,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>x_fuerza</t>
+          <t>x_corrente_al_metro</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Fuerza</t>
+          <t>Corrente al metro</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3166,12 +3166,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>x_jacobo</t>
+          <t>x_abra_el_circuito_de_voltaje</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Jacobo</t>
+          <t>Abra el circuito de voltaje</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3198,12 +3198,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>x_carga_maxima</t>
+          <t>x_comunicacion_remota</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Carga máxima</t>
+          <t>comunicación remota</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3230,12 +3230,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>x_corriente_maxima_del_fusible</t>
+          <t>x_longitud</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Corriente máxima del fusible</t>
+          <t>Longitud</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3262,12 +3262,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>x_output_inverter</t>
+          <t>x_chip_led</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Output inverter</t>
+          <t>Chip LED</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3294,12 +3294,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>x_bms</t>
+          <t>x_potencia_de_entrada_de_carga</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BMS</t>
+          <t>Potencia de entrada de carga</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3326,12 +3326,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>x_distorsion_armonica_actual</t>
+          <t>x_interfaz_de_conexion</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Distorsión armónica actual</t>
+          <t>Interfaz de conexión</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3358,12 +3358,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>x_seccion_de_cables</t>
+          <t>x_output_dc</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Sección de cables</t>
+          <t>Output DC</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3390,12 +3390,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>x_output_dc</t>
+          <t>x_emc</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Output DC</t>
+          <t>EMC</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3422,12 +3422,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>x_potencia_de_salida</t>
+          <t>x_color_de_la_luz</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Potencia de salida</t>
+          <t>Color de la luz</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3454,12 +3454,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>x_salida_nominal</t>
+          <t>x_potencia_de_salida_maxima</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Salida nominal</t>
+          <t>Potencia de salida máxima</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3486,12 +3486,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>x_potencia_de_salida_maxima</t>
+          <t>x_codigo_de_la_familia</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Potencia de salida máxima</t>
+          <t>Código de la Familia</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3518,12 +3518,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>x_input_ac</t>
+          <t>x_tension_de_corte_al_final_de_la_descarga</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Input AC</t>
+          <t>Tensión de corte (al final de la descarga)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3550,12 +3550,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>x_sensor</t>
+          <t>x_corriente_de_cortocircuito</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>sensor</t>
+          <t>Corriente de cortocircuito</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3582,12 +3582,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>x_sistema_electrico</t>
+          <t>x_distancia_de_deteccion</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Sistema electrico</t>
+          <t>Distancia de detección</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3614,12 +3614,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>x_corriente_en_el_punto_de_maxima_potencia_</t>
+          <t>x_piezas_en_la_caja</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Corriente en el punto de máxima potencia.</t>
+          <t>Piezas en la caja</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3646,12 +3646,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>x_energia_del_modulo_fotovoltaico</t>
+          <t>x_numero_de_celdas</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Energía del módulo fotovoltaico</t>
+          <t>Número de celdas</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3678,12 +3678,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>x_tension_maxima_de_entrada</t>
+          <t>x_resolucion</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Tensión máxima de entrada</t>
+          <t>Resolución</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3710,12 +3710,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>x_longitud_del_cable</t>
+          <t>x_voltaje_maximo_del_sistema</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Longitud del cable</t>
+          <t>Voltaje máximo del sistema</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3742,12 +3742,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>x_tipo_de_bateria</t>
+          <t>x_input_dc</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Tipo de Batería</t>
+          <t>Input DC</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3774,12 +3774,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>x_potencia_de_entrada</t>
+          <t>x_consumo_de_energia</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Potencia de entrada</t>
+          <t>Consumo de energía</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3806,12 +3806,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>x_capacidad_de_la_bateria</t>
+          <t>x_corriente_maxima_del_fusible</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Capacidad de la batería</t>
+          <t>Corriente máxima del fusible</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3838,12 +3838,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>x_c_rating_scarica</t>
+          <t>x_productor</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>C rating scarica</t>
+          <t>Productor</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3870,12 +3870,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>x_abra_el_circuito_de_voltaje</t>
+          <t>x_numero_de_led</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Abra el circuito de voltaje</t>
+          <t>Número de LED</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3902,12 +3902,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>x_deteccion_de_resistencia_de_aislamiento</t>
+          <t>x_input_usb_c</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Detección de resistencia de aislamiento</t>
+          <t>Input USB-C</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3934,12 +3934,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>x_durata</t>
+          <t>x_coef_temperatura_actual</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Durata</t>
+          <t>Coef. temperatura actual</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3966,12 +3966,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>x_seccion_de_coleccion</t>
+          <t>x_interfaz_de_datos</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Sección de colección</t>
+          <t>Interfaz de datos</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3998,12 +3998,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>x_configuracion_de_usuario</t>
+          <t>x_versione_bt</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Configuración de usuario</t>
+          <t>Versione BT</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4030,12 +4030,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>x_altitud_maxima_de_funcionamiento</t>
+          <t>x_conector_usb</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Altitud máxima de funcionamiento</t>
+          <t>conector USB</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4062,12 +4062,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>x_consumo_de_energia</t>
+          <t>x_espesor</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Consumo de energía</t>
+          <t>Espesor</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4094,12 +4094,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>x_tipo_regulable</t>
+          <t>x_sensor</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Tipo regulable</t>
+          <t>sensor</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4126,12 +4126,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>x_tipo_de_celula</t>
+          <t>x_capacidad_de_la_bateria_ah</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Tipo de célula</t>
+          <t>Capacidad de la batería (Ah)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4158,12 +4158,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>x_ruido</t>
+          <t>x_forma</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Ruido</t>
+          <t>Forma</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4190,12 +4190,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>x_eficiencia_del_modulo</t>
+          <t>x_unidad_de_medida</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Eficiencia del módulo</t>
+          <t>Unidad de medida</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4222,12 +4222,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>x_carga_maxima_del_panel</t>
+          <t>x_input_ac</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Carga máxima del panel</t>
+          <t>Input AC</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4254,12 +4254,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>x_input_usb_c</t>
+          <t>x_bateria_recargable</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Input USB-C</t>
+          <t>Batería recargable</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4286,12 +4286,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>x_corriente_de_salida</t>
+          <t>x_bateria</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Corriente de salida</t>
+          <t>Batería</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4318,12 +4318,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>x_altura</t>
+          <t>x_proteccion_contra_sobretensiones</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Altura</t>
+          <t>Protección contra sobretensiones</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4350,12 +4350,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>x_garanzia</t>
+          <t>x_vocero</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Garanzia</t>
+          <t>Vocero</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4382,12 +4382,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>x_garantia_de_productividad</t>
+          <t>x_potencia_equivalente</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Garantía de productividad</t>
+          <t>Potencia equivalente</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4414,12 +4414,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>x_autonomia</t>
+          <t>x_jacobo</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Autonomia</t>
+          <t>Jacobo</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4446,12 +4446,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>x_sensor</t>
+          <t>x_longitud_de_la_bobina</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Sensor</t>
+          <t>Longitud de la bobina</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4478,12 +4478,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>x_proteccion_contra_rayos_de_la_entrada_fotovoltaica</t>
+          <t>x_intervalo_de_adquisicion_de_datos</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Protección contra rayos de la entrada fotovoltaica</t>
+          <t>Intervalo de adquisición de datos</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4510,12 +4510,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>x_potencia_de_entrada_de_carga</t>
+          <t>x_corriente_maxima_de_salida</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Potencia de entrada de carga</t>
+          <t>Corriente máxima de salida</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4542,12 +4542,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>x_linealidad</t>
+          <t>x_toma_de_entrada</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Linealidad</t>
+          <t>Toma de entrada</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4574,12 +4574,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>x_thdi</t>
+          <t>x_corriente_maxima</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>THDi</t>
+          <t>Corriente máxima</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4606,12 +4606,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>x_sensor_de_imagen</t>
+          <t>x_cables_de_salida</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Sensor de imagen</t>
+          <t>Cables de salida</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4638,12 +4638,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>x_piezas_por_palet</t>
+          <t>x_output_auto</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Piezas por palet</t>
+          <t>Output Auto</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4670,12 +4670,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>x_factor_de_potencia</t>
+          <t>x_tiempo_de_carga</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Factor de potencia</t>
+          <t>Tiempo de carga</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4702,12 +4702,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>x_conector_usb</t>
+          <t>x_corriente_en_el_punto_de_maxima_potencia_</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>conector USB</t>
+          <t>Corriente en el punto de máxima potencia.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4734,12 +4734,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>x_proteccion_anti_isla</t>
+          <t>x_regulable</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Protección anti-isla</t>
+          <t>Regulable</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4766,12 +4766,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>x_cadenas_para_mppt</t>
+          <t>x_control_remoto</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Cadenas para MPPT</t>
+          <t>Control remoto</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4798,12 +4798,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>x_tamano_de_la_bateria</t>
+          <t>x_potencia_maxima_de_entrada</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Tamaño de la batería</t>
+          <t>Potencia máxima de entrada</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4830,12 +4830,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>x_campo_de_deteccion</t>
+          <t>x_thdi</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Campo de detección</t>
+          <t>THDi</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4862,12 +4862,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>x_grado_de_proteccion</t>
+          <t>x_tipo_de_antena</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Grado de protección</t>
+          <t>Tipo de antena</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4894,12 +4894,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>x_corriente_de_carga_maxima</t>
+          <t>x_proteccion_contra_polaridad_inversa_de_la_entrada_de_la_cad</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Corriente de carga máxima</t>
+          <t>Protección contra polaridad inversa de la entrada de la cadena fotovoltaica</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4926,12 +4926,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>x_unidad_de_control_de_corriente_residual</t>
+          <t>x_garantia_de_productividad</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Unidad de control de corriente residual</t>
+          <t>Garantía de productividad</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4958,12 +4958,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>x_tension_minima_de_funcionamiento</t>
+          <t>x_control_en_tiempo_real</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Tensión mínima de funcionamiento</t>
+          <t>control en tiempo real</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4990,12 +4990,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>x_conectividad</t>
+          <t>x_factor_de_potencia_fp</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Conectividad</t>
+          <t>Factor de potencia (FP)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5022,12 +5022,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>x_tension_nominal</t>
+          <t>x_piezas_por_palet</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>tensión nominal</t>
+          <t>Piezas por palet</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5054,12 +5054,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>x_proteccion_contra_polaridad_inversa_de_la_entrada_de_la_cad</t>
+          <t>x_capacidad_de_la_bateria</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Protección contra polaridad inversa de la entrada de la cadena fotovoltaica</t>
+          <t>Capacidad de la batería</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5086,12 +5086,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>x_metodo_de_montaje</t>
+          <t>x_working_time</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Método de montaje</t>
+          <t>Working time</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5118,12 +5118,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>x_url</t>
+          <t>x_potencia_maxima_de_ca</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>Potencia máxima de CA</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5150,12 +5150,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>x_temperatura_de_color_cti</t>
+          <t>x_material</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Temperatura de color (CTI)</t>
+          <t>Material</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5182,12 +5182,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>x_corriente_maxima_de_salida</t>
+          <t>x_accesorios_por_sku</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Corriente máxima de salida</t>
+          <t>Accesorios por SKU</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5214,12 +5214,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>x_touch</t>
+          <t>x_dimension</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Touch</t>
+          <t>Dimensión</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5246,12 +5246,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>x_potencia_de_salida_continua</t>
+          <t>x_valor_pico</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Potencia de salida continua</t>
+          <t>Valor pico</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5278,12 +5278,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>x_curva_de_carga</t>
+          <t>x_color</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Curva de carga</t>
+          <t>Color</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5310,12 +5310,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>x_tipo_de_carga</t>
+          <t>x_potencia_nominal</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Tipo de carga</t>
+          <t>Potencia nominal</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5342,12 +5342,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>x_apoyo</t>
+          <t>x_tension_de_arranque</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Apoyo</t>
+          <t>Tensión de arranque</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5374,12 +5374,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>x_interfaz_de_conexion</t>
+          <t>x_tipo_de_carga</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Interfaz de conexión</t>
+          <t>Tipo de carga</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5406,12 +5406,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>x_flujo_luminoso</t>
+          <t>x_regulaciones_de_seguridad</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Flujo luminoso</t>
+          <t>Regulaciones de seguridad</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5438,12 +5438,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>x_tension_de_carga</t>
+          <t>x_embalaje</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Tensión de carga</t>
+          <t>embalaje</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5470,12 +5470,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>x_range_tensione_mppt</t>
+          <t>x_eficacia_luminosa</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Range tensione MPPT</t>
+          <t>Eficacia luminosa</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5502,12 +5502,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>x_tension_de_salida</t>
+          <t>x_marca_del_driver</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Tensión de salida</t>
+          <t>Marca del Driver</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5534,12 +5534,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>x_haz_de_luz</t>
+          <t>x_estrategia_de_carga_para_la_bateria_de_iones_de_litio_</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Haz de luz</t>
+          <t>Estrategia de carga para la batería de iones de litio.</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5566,12 +5566,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>x_sku</t>
+          <t>x_tension_nominal_mppt</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>SKU</t>
+          <t>Tensión nominal MPPT</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5598,12 +5598,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>x_tipo_de_instalacion</t>
+          <t>x_potencia_de_entrada</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Tipo de instalación</t>
+          <t>Potencia de entrada</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5630,12 +5630,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>x_maxima_eficiencia</t>
+          <t>x_coef_temperatura_voltaje</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Máxima eficiencia</t>
+          <t>Coef. temperatura Voltaje</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5662,12 +5662,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>x_output_qc</t>
+          <t>x_c_rating_carica</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Output QC</t>
+          <t>C rating carica</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5694,12 +5694,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>x_s_n</t>
+          <t>x_output_ac</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>S/N</t>
+          <t>Output AC</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5726,12 +5726,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>x_espesor</t>
+          <t>x_frequenza_wireless</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Espesor</t>
+          <t>Frequenza wireless</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5758,12 +5758,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>x_ataque</t>
+          <t>x_corriente_maxima_para_mppt</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Ataque</t>
+          <t>Corriente máxima para MPPT</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5790,12 +5790,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>x_sensibilidad_del_microfono</t>
+          <t>x_voltaje_de_la_bateria</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Sensibilidad del micrófono</t>
+          <t>Voltaje de la batería</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5822,12 +5822,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>x_potencia_maxima_de_entrada</t>
+          <t>x_autonomia</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Potencia máxima de entrada</t>
+          <t>Autonomia</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5854,12 +5854,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>x_version</t>
+          <t>x_unidad_de_control_de_corriente_residual</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Versión</t>
+          <t>Unidad de control de corriente residual</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5886,12 +5886,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>x_accesorios_por_sku</t>
+          <t>x_fuerza</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Accesorios por SKU</t>
+          <t>Fuerza</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5918,12 +5918,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>x_comunicacion_serial</t>
+          <t>x_nombre_de_la_marca</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Comunicación serial</t>
+          <t>Nombre de la marca</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5950,12 +5950,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>x_productor</t>
+          <t>x_poder_absorbido</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Productor</t>
+          <t>Poder absorbido</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5982,12 +5982,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>x_sin_parpadeo_sin_parpadeo</t>
+          <t>x_carga_maxima_del_panel</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Sin parpadeo (sin parpadeo)</t>
+          <t>Carga máxima del panel</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6014,12 +6014,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>x_se_puede_pedir_en_multiplos_de</t>
+          <t>x_memoria</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Se puede pedir en múltiplos de</t>
+          <t>Memoria</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6046,12 +6046,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>x_numero_de_llaves</t>
+          <t>x_actualizacion_de_firmware</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>numero de llaves</t>
+          <t>Actualización de firmware</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6078,12 +6078,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>x_corriente_de_cortocircuito</t>
+          <t>x_garanzia</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Corriente de cortocircuito</t>
+          <t>Garanzia</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6110,12 +6110,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>x_output_usb_2</t>
+          <t>x_output_inverter</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Output USB 2</t>
+          <t>Output inverter</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6142,12 +6142,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>x_tension_en_el_punto_de_maxima_potencia_</t>
+          <t>x_proteccion_anti_isla</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Tensión en el punto de máxima potencia.</t>
+          <t>Protección anti-isla</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6174,12 +6174,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>x_frequenza_wireless</t>
+          <t>x_wireless</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Frequenza wireless</t>
+          <t>Wireless</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6206,12 +6206,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>x_tolerancia_de_potencia</t>
+          <t>x_numero_de_lamparas</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Tolerancia de potencia</t>
+          <t>Número de lámparas</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6238,12 +6238,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>x_corriente_maxima</t>
+          <t>x_enfriandose</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Corriente máxima</t>
+          <t>Enfriándose</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6270,12 +6270,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>x_tension_de_corte_al_final_de_la_descarga</t>
+          <t>x_tension_de_salida</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Tensión de corte (al final de la descarga)</t>
+          <t>Tensión de salida</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6302,12 +6302,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>x_capacidad_de_la_bateria_ah</t>
+          <t>x_sin_parpadeo_sin_parpadeo</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Capacidad de la batería (Ah)</t>
+          <t>Sin parpadeo (sin parpadeo)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6334,12 +6334,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>x_regulaciones_de_seguridad</t>
+          <t>x_tipo_regulable</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Regulaciones de seguridad</t>
+          <t>Tipo regulable</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6366,12 +6366,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>x_voltaje_de_la_bateria</t>
+          <t>x_efecto_frecuente</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Voltaje de la batería</t>
+          <t>efecto frecuente</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6398,12 +6398,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>x_consumo_energetico_nocturno</t>
+          <t>x_resistencia_maxima_de_muestreo</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Consumo energético nocturno</t>
+          <t>Resistencia máxima de muestreo</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6430,12 +6430,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>x_id_eprel</t>
+          <t>x_touch</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ID EPREL</t>
+          <t>Touch</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6462,12 +6462,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>x_nombre_de_la_marca</t>
+          <t>x_url</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Nombre de la marca</t>
+          <t>url</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6494,12 +6494,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>x_tipo_de_antena</t>
+          <t>x_maxima_eficiencia</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Tipo de antena</t>
+          <t>Máxima eficiencia</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6526,12 +6526,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>x_ugr</t>
+          <t>x_corriente_de_cortocircuito_mppt</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>UGR</t>
+          <t>Corriente de cortocircuito MPPT</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6558,12 +6558,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>x_bateria</t>
+          <t>x_sistema_electrico</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Batería</t>
+          <t>Sistema electrico</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6590,12 +6590,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>x_color_de_la_luz</t>
+          <t>x_tension_nominal</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Color de la luz</t>
+          <t>tensión nominal</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6622,12 +6622,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>x_toma_de_entrada</t>
+          <t>x_energia_del_modulo_fotovoltaico</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Toma de entrada</t>
+          <t>Energía del módulo fotovoltaico</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6654,12 +6654,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>x_proteccion_contra_sobretensiones</t>
+          <t>x_panel_solar</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Protección contra sobretensiones</t>
+          <t>Panel solar</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -6686,12 +6686,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>x_tension_de_arranque</t>
+          <t>x_consumo_energetico_nocturno</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Tensión de arranque</t>
+          <t>Consumo energético nocturno</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -6718,12 +6718,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>x_potencia_nominal</t>
+          <t>x_distorsion_armonica_actual</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Potencia nominal</t>
+          <t>Distorsión armónica actual</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -6750,12 +6750,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>x_tension_nominal_mppt</t>
+          <t>x_tension_minima_de_funcionamiento</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Tensión nominal MPPT</t>
+          <t>Tensión mínima de funcionamiento</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -6782,12 +6782,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>x_garantia_de_fabricacion</t>
+          <t>x_version</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Garantía de fabricación</t>
+          <t>Versión</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -6814,12 +6814,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>x_comunicacion</t>
+          <t>x_luce_a_led</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Comunicación</t>
+          <t>Luce a LED</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -6846,12 +6846,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>x_ciclos_de_carga_descarga</t>
+          <t>x_sensor_de_imagen</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Ciclos de carga/descarga</t>
+          <t>Sensor de imagen</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -6878,12 +6878,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>x_interfaz_de_datos</t>
+          <t>x_tipo_de_instalacion</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Interfaz de datos</t>
+          <t>Tipo de instalación</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -6910,12 +6910,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>x_tecnologia_led</t>
+          <t>x_temperatura_de_color_cti</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Tecnologia LED</t>
+          <t>Temperatura de color (CTI)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -6942,12 +6942,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>x_enfriandose</t>
+          <t>x_grado_de_proteccion_contra_impactos</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Enfriándose</t>
+          <t>Grado de protección contra impactos</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -6974,12 +6974,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>x_tension_de_red</t>
+          <t>x_descripcion</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Tensión de red</t>
+          <t>descripcion</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -7006,12 +7006,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>x_tension_de_alimentacion</t>
+          <t>x_metodo_de_montaje</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Tensión de alimentación</t>
+          <t>Método de montaje</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7038,12 +7038,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>x_vocero</t>
+          <t>x_coef_temperatura_fuerza</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Vocero</t>
+          <t>Coef. temperatura fuerza</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -7070,12 +7070,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>x_resistencia_maxima_de_muestreo</t>
+          <t>x_frecuencia_de_radio_fm</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Resistencia máxima de muestreo</t>
+          <t>frecuencia de radio fm</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -7102,12 +7102,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>x_luce_a_led</t>
+          <t>x_tipo_de_celula</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Luce a LED</t>
+          <t>Tipo de célula</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7134,12 +7134,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>x_precision</t>
+          <t>x_se_puede_pedir_en_multiplos_de</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Precisión</t>
+          <t>Se puede pedir en múltiplos de</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7166,12 +7166,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>x_corriente_de_cortocircuito_mppt</t>
+          <t>x_salida_nominal</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Corriente de cortocircuito MPPT</t>
+          <t>Salida nominal</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7198,12 +7198,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>x_resolucion</t>
+          <t>x_cri</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Resolución</t>
+          <t>CRI</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7230,12 +7230,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>x_forma</t>
+          <t>x_corriente_de_descarga_estandar</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Forma</t>
+          <t>Corriente de descarga estándar</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -7262,12 +7262,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>x_watt_al_metro</t>
+          <t>x_garantia_de_fabricacion</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Watt al metro</t>
+          <t>Garantía de fabricación</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7294,12 +7294,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>x_longitud</t>
+          <t>x_ciclos_de_encendido_apagado</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Longitud</t>
+          <t>Ciclos de encendido/apagado</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7326,12 +7326,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>x_control_remoto</t>
+          <t>x_comunicacion_serial</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Control remoto</t>
+          <t>Comunicación serial</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7358,12 +7358,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>x_salida_de_potencia_continua</t>
+          <t>x_ataque</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Salida de potencia continua</t>
+          <t>Ataque</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7390,12 +7390,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>x_corriente_de_carga_estandar</t>
+          <t>x_tension_de_alimentacion</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Corriente de carga estándar</t>
+          <t>Tensión de alimentación</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
